--- a/raw_data/20200818_saline/20200818_Sensor1_Test_31.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_31.xlsx
@@ -1,1217 +1,1633 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79509153-BC8B-4A69-81E6-716586C9FBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>27186.435737</v>
       </c>
       <c r="B2" s="1">
-        <v>7.551788</v>
+        <v>7.5517880000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>899.521000</v>
+        <v>899.52099999999996</v>
       </c>
       <c r="D2" s="1">
-        <v>-202.212000</v>
+        <v>-202.21199999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>27196.484647</v>
+        <v>27196.484647000001</v>
       </c>
       <c r="G2" s="1">
-        <v>7.554579</v>
+        <v>7.5545790000000004</v>
       </c>
       <c r="H2" s="1">
-        <v>918.293000</v>
+        <v>918.29300000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-171.070000</v>
+        <v>-171.07</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>27206.922954</v>
+        <v>27206.922954000001</v>
       </c>
       <c r="L2" s="1">
-        <v>7.557479</v>
+        <v>7.5574789999999998</v>
       </c>
       <c r="M2" s="1">
-        <v>941.533000</v>
+        <v>941.53300000000002</v>
       </c>
       <c r="N2" s="1">
-        <v>-121.184000</v>
+        <v>-121.184</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>27217.746691</v>
       </c>
       <c r="Q2" s="1">
-        <v>7.560485</v>
+        <v>7.5604849999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>948.348000</v>
+        <v>948.34799999999996</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.570000</v>
+        <v>-104.57</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>27228.093197</v>
+        <v>27228.093196999998</v>
       </c>
       <c r="V2" s="1">
-        <v>7.563359</v>
+        <v>7.5633590000000002</v>
       </c>
       <c r="W2" s="1">
-        <v>955.008000</v>
+        <v>955.00800000000004</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.175600</v>
+        <v>-89.175600000000003</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>27238.269120</v>
+        <v>27238.269120000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>7.566186</v>
+        <v>7.5661860000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>962.047000</v>
+        <v>962.04700000000003</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.083300</v>
+        <v>-77.083299999999994</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>27248.138021</v>
+        <v>27248.138020999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>7.568927</v>
+        <v>7.5689270000000004</v>
       </c>
       <c r="AG2" s="1">
-        <v>966.727000</v>
+        <v>966.72699999999998</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.722800</v>
+        <v>-74.722800000000007</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>27258.245526</v>
+        <v>27258.245525999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>7.571735</v>
+        <v>7.5717350000000003</v>
       </c>
       <c r="AL2" s="1">
-        <v>973.792000</v>
+        <v>973.79200000000003</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.243900</v>
+        <v>-79.243899999999996</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>27268.512217</v>
       </c>
       <c r="AP2" s="1">
-        <v>7.574587</v>
+        <v>7.5745870000000002</v>
       </c>
       <c r="AQ2" s="1">
-        <v>981.660000</v>
+        <v>981.66</v>
       </c>
       <c r="AR2" s="1">
-        <v>-90.671100</v>
+        <v>-90.671099999999996</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>27279.469154</v>
+        <v>27279.469153999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>7.577630</v>
+        <v>7.5776300000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>991.343000</v>
+        <v>991.34299999999996</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.249000</v>
+        <v>-108.249</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>27290.627836</v>
       </c>
       <c r="AZ2" s="1">
-        <v>7.580730</v>
+        <v>7.58073</v>
       </c>
       <c r="BA2" s="1">
-        <v>999.490000</v>
+        <v>999.49</v>
       </c>
       <c r="BB2" s="1">
-        <v>-123.820000</v>
+        <v>-123.82</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>27301.644444</v>
+        <v>27301.644444000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>7.583790</v>
+        <v>7.5837899999999996</v>
       </c>
       <c r="BF2" s="1">
-        <v>1037.590000</v>
+        <v>1037.5899999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-195.837000</v>
+        <v>-195.83699999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>27312.720142</v>
+        <v>27312.720141999998</v>
       </c>
       <c r="BJ2" s="1">
-        <v>7.586867</v>
+        <v>7.5868669999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1103.940000</v>
+        <v>1103.94</v>
       </c>
       <c r="BL2" s="1">
-        <v>-313.045000</v>
+        <v>-313.04500000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>27324.113214</v>
+        <v>27324.113214000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>7.590031</v>
+        <v>7.5900309999999998</v>
       </c>
       <c r="BP2" s="1">
-        <v>1212.480000</v>
+        <v>1212.48</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-497.394000</v>
+        <v>-497.39400000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>27335.264272</v>
       </c>
       <c r="BT2" s="1">
-        <v>7.593129</v>
+        <v>7.5931290000000002</v>
       </c>
       <c r="BU2" s="1">
-        <v>1334.880000</v>
+        <v>1334.88</v>
       </c>
       <c r="BV2" s="1">
-        <v>-699.102000</v>
+        <v>-699.10199999999998</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>27346.656914</v>
+        <v>27346.656913999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>7.596294</v>
+        <v>7.5962940000000003</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1470.950000</v>
+        <v>1470.95</v>
       </c>
       <c r="CA2" s="1">
-        <v>-913.795000</v>
+        <v>-913.79499999999996</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>27357.809437</v>
       </c>
       <c r="CD2" s="1">
-        <v>7.599392</v>
+        <v>7.5993919999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1828.630000</v>
+        <v>1828.63</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1423.160000</v>
+        <v>-1423.16</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>27186.789349</v>
+        <v>27186.789348999999</v>
       </c>
       <c r="B3" s="1">
-        <v>7.551886</v>
+        <v>7.5518859999999997</v>
       </c>
       <c r="C3" s="1">
-        <v>899.748000</v>
+        <v>899.74800000000005</v>
       </c>
       <c r="D3" s="1">
-        <v>-202.489000</v>
+        <v>-202.489</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>27197.143342</v>
+        <v>27197.143341999999</v>
       </c>
       <c r="G3" s="1">
-        <v>7.554762</v>
+        <v>7.5547620000000002</v>
       </c>
       <c r="H3" s="1">
-        <v>917.619000</v>
+        <v>917.61900000000003</v>
       </c>
       <c r="I3" s="1">
-        <v>-171.094000</v>
+        <v>-171.09399999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>27207.643145</v>
+        <v>27207.643144999998</v>
       </c>
       <c r="L3" s="1">
-        <v>7.557679</v>
+        <v>7.5576790000000003</v>
       </c>
       <c r="M3" s="1">
-        <v>941.574000</v>
+        <v>941.57399999999996</v>
       </c>
       <c r="N3" s="1">
-        <v>-120.962000</v>
+        <v>-120.962</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>27218.163788</v>
+        <v>27218.163788000002</v>
       </c>
       <c r="Q3" s="1">
-        <v>7.560601</v>
+        <v>7.5606010000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>948.376000</v>
+        <v>948.37599999999998</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.567000</v>
+        <v>-104.56699999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>27228.438911</v>
+        <v>27228.438911000001</v>
       </c>
       <c r="V3" s="1">
-        <v>7.563455</v>
+        <v>7.5634550000000003</v>
       </c>
       <c r="W3" s="1">
-        <v>955.053000</v>
+        <v>955.053</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.238600</v>
+        <v>-89.238600000000005</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>27238.616848</v>
+        <v>27238.616848000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>7.566282</v>
+        <v>7.5662820000000002</v>
       </c>
       <c r="AB3" s="1">
-        <v>962.111000</v>
+        <v>962.11099999999999</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.108500</v>
+        <v>-77.108500000000006</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>27248.517993</v>
+        <v>27248.517993000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>7.569033</v>
+        <v>7.5690330000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>966.710000</v>
+        <v>966.71</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.742900</v>
+        <v>-74.742900000000006</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>27258.665110</v>
+        <v>27258.665110000002</v>
       </c>
       <c r="AK3" s="1">
-        <v>7.571851</v>
+        <v>7.5718509999999997</v>
       </c>
       <c r="AL3" s="1">
-        <v>973.781000</v>
+        <v>973.78099999999995</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.224500</v>
+        <v>-79.224500000000006</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>27268.928824</v>
+        <v>27268.928823999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>7.574702</v>
+        <v>7.5747020000000003</v>
       </c>
       <c r="AQ3" s="1">
-        <v>981.660000</v>
+        <v>981.66</v>
       </c>
       <c r="AR3" s="1">
-        <v>-90.680300</v>
+        <v>-90.680300000000003</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>27279.897354</v>
+        <v>27279.897354000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>7.577749</v>
+        <v>7.5777489999999998</v>
       </c>
       <c r="AV3" s="1">
-        <v>991.343000</v>
+        <v>991.34299999999996</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.244000</v>
+        <v>-108.244</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>27291.006746</v>
+        <v>27291.006745999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>7.580835</v>
+        <v>7.5808350000000004</v>
       </c>
       <c r="BA3" s="1">
-        <v>999.477000</v>
+        <v>999.47699999999998</v>
       </c>
       <c r="BB3" s="1">
-        <v>-123.830000</v>
+        <v>-123.83</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>27302.008508</v>
+        <v>27302.008507999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>7.583891</v>
+        <v>7.5838910000000004</v>
       </c>
       <c r="BF3" s="1">
-        <v>1037.570000</v>
+        <v>1037.57</v>
       </c>
       <c r="BG3" s="1">
-        <v>-195.844000</v>
+        <v>-195.84399999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>27313.097106</v>
+        <v>27313.097106000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>7.586971</v>
+        <v>7.5869710000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1103.980000</v>
+        <v>1103.98</v>
       </c>
       <c r="BL3" s="1">
-        <v>-313.086000</v>
+        <v>-313.08600000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>27324.936574</v>
+        <v>27324.936573999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>7.590260</v>
+        <v>7.5902599999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1212.490000</v>
+        <v>1212.49</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-497.417000</v>
+        <v>-497.41699999999997</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>27335.717616</v>
+        <v>27335.717616000002</v>
       </c>
       <c r="BT3" s="1">
-        <v>7.593255</v>
+        <v>7.5932550000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1334.900000</v>
+        <v>1334.9</v>
       </c>
       <c r="BV3" s="1">
-        <v>-699.302000</v>
+        <v>-699.30200000000002</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>27347.095345</v>
+        <v>27347.095345000002</v>
       </c>
       <c r="BY3" s="1">
-        <v>7.596415</v>
+        <v>7.5964150000000004</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1470.910000</v>
+        <v>1470.91</v>
       </c>
       <c r="CA3" s="1">
-        <v>-913.940000</v>
+        <v>-913.94</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>27358.382802</v>
       </c>
       <c r="CD3" s="1">
-        <v>7.599551</v>
+        <v>7.5995509999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1827.240000</v>
+        <v>1827.24</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1423.160000</v>
+        <v>-1423.16</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>27187.456964</v>
+        <v>27187.456964000001</v>
       </c>
       <c r="B4" s="1">
-        <v>7.552071</v>
+        <v>7.5520709999999998</v>
       </c>
       <c r="C4" s="1">
-        <v>899.869000</v>
+        <v>899.86900000000003</v>
       </c>
       <c r="D4" s="1">
-        <v>-202.367000</v>
+        <v>-202.36699999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>27197.517814</v>
+        <v>27197.517813999999</v>
       </c>
       <c r="G4" s="1">
-        <v>7.554866</v>
+        <v>7.5548659999999996</v>
       </c>
       <c r="H4" s="1">
-        <v>918.239000</v>
+        <v>918.23900000000003</v>
       </c>
       <c r="I4" s="1">
-        <v>-170.981000</v>
+        <v>-170.98099999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>27207.990885</v>
+        <v>27207.990884999999</v>
       </c>
       <c r="L4" s="1">
-        <v>7.557775</v>
+        <v>7.5577750000000004</v>
       </c>
       <c r="M4" s="1">
-        <v>941.442000</v>
+        <v>941.44200000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-121.318000</v>
+        <v>-121.318</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>27218.513995</v>
+        <v>27218.513995000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>7.560698</v>
+        <v>7.5606980000000004</v>
       </c>
       <c r="R4" s="1">
-        <v>948.403000</v>
+        <v>948.40300000000002</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.587000</v>
+        <v>-104.587</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>27228.781676</v>
+        <v>27228.781675999999</v>
       </c>
       <c r="V4" s="1">
-        <v>7.563550</v>
+        <v>7.5635500000000002</v>
       </c>
       <c r="W4" s="1">
-        <v>955.022000</v>
+        <v>955.02200000000005</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.221300</v>
+        <v>-89.221299999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>27238.962563</v>
+        <v>27238.962563000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>7.566378</v>
+        <v>7.5663780000000003</v>
       </c>
       <c r="AB4" s="1">
-        <v>962.058000</v>
+        <v>962.05799999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.158300</v>
+        <v>-77.158299999999997</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>27248.941572</v>
       </c>
       <c r="AF4" s="1">
-        <v>7.569150</v>
+        <v>7.5691499999999996</v>
       </c>
       <c r="AG4" s="1">
-        <v>966.710000</v>
+        <v>966.71</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.755200</v>
+        <v>-74.755200000000002</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>27259.007380</v>
+        <v>27259.007379999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>7.571946</v>
+        <v>7.5719459999999996</v>
       </c>
       <c r="AL4" s="1">
-        <v>973.792000</v>
+        <v>973.79200000000003</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.237200</v>
+        <v>-79.237200000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>27269.272584</v>
+        <v>27269.272583999998</v>
       </c>
       <c r="AP4" s="1">
-        <v>7.574798</v>
+        <v>7.5747980000000004</v>
       </c>
       <c r="AQ4" s="1">
-        <v>981.674000</v>
+        <v>981.67399999999998</v>
       </c>
       <c r="AR4" s="1">
-        <v>-90.677500</v>
+        <v>-90.677499999999995</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>27280.260950</v>
+        <v>27280.26095</v>
       </c>
       <c r="AU4" s="1">
-        <v>7.577850</v>
+        <v>7.5778499999999998</v>
       </c>
       <c r="AV4" s="1">
-        <v>991.348000</v>
+        <v>991.34799999999996</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.258000</v>
+        <v>-108.258</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>27291.363907</v>
+        <v>27291.363906999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>7.580934</v>
+        <v>7.5809340000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>999.457000</v>
+        <v>999.45699999999999</v>
       </c>
       <c r="BB4" s="1">
-        <v>-123.833000</v>
+        <v>-123.833</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>27302.373101</v>
+        <v>27302.373101000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>7.583993</v>
+        <v>7.5839930000000004</v>
       </c>
       <c r="BF4" s="1">
-        <v>1037.560000</v>
+        <v>1037.56</v>
       </c>
       <c r="BG4" s="1">
-        <v>-195.867000</v>
+        <v>-195.86699999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>27313.845534</v>
       </c>
       <c r="BJ4" s="1">
-        <v>7.587179</v>
+        <v>7.5871789999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1103.940000</v>
+        <v>1103.94</v>
       </c>
       <c r="BL4" s="1">
-        <v>-313.076000</v>
+        <v>-313.07600000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>27325.355693</v>
+        <v>27325.355693000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>7.590377</v>
+        <v>7.5903770000000002</v>
       </c>
       <c r="BP4" s="1">
-        <v>1212.480000</v>
+        <v>1212.48</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-497.428000</v>
+        <v>-497.428</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>27336.144230</v>
+        <v>27336.144230000002</v>
       </c>
       <c r="BT4" s="1">
-        <v>7.593373</v>
+        <v>7.5933729999999997</v>
       </c>
       <c r="BU4" s="1">
-        <v>1334.840000</v>
+        <v>1334.84</v>
       </c>
       <c r="BV4" s="1">
-        <v>-699.302000</v>
+        <v>-699.30200000000002</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>27347.520418</v>
@@ -1220,996 +1636,996 @@
         <v>7.596533</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1470.920000</v>
+        <v>1470.92</v>
       </c>
       <c r="CA4" s="1">
-        <v>-913.927000</v>
+        <v>-913.92700000000002</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>27359.211120</v>
+        <v>27359.21112</v>
       </c>
       <c r="CD4" s="1">
-        <v>7.599781</v>
+        <v>7.5997810000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1827.430000</v>
+        <v>1827.43</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1424.440000</v>
+        <v>-1424.44</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>27187.815603</v>
+        <v>27187.815602999999</v>
       </c>
       <c r="B5" s="1">
-        <v>7.552171</v>
+        <v>7.5521710000000004</v>
       </c>
       <c r="C5" s="1">
-        <v>899.597000</v>
+        <v>899.59699999999998</v>
       </c>
       <c r="D5" s="1">
-        <v>-202.378000</v>
+        <v>-202.37799999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>27197.865511</v>
       </c>
       <c r="G5" s="1">
-        <v>7.554963</v>
+        <v>7.5549629999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>918.087000</v>
+        <v>918.08699999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-170.856000</v>
+        <v>-170.85599999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>27208.336056</v>
       </c>
       <c r="L5" s="1">
-        <v>7.557871</v>
+        <v>7.5578709999999996</v>
       </c>
       <c r="M5" s="1">
-        <v>941.699000</v>
+        <v>941.69899999999996</v>
       </c>
       <c r="N5" s="1">
-        <v>-121.116000</v>
+        <v>-121.116</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>27218.867610</v>
+        <v>27218.867610000001</v>
       </c>
       <c r="Q5" s="1">
         <v>7.560797</v>
       </c>
       <c r="R5" s="1">
-        <v>948.383000</v>
+        <v>948.38300000000004</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.628000</v>
+        <v>-104.628</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>27229.204236</v>
+        <v>27229.204236000001</v>
       </c>
       <c r="V5" s="1">
-        <v>7.563668</v>
+        <v>7.5636679999999998</v>
       </c>
       <c r="W5" s="1">
-        <v>955.026000</v>
+        <v>955.02599999999995</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.147300</v>
+        <v>-89.147300000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>27239.398511</v>
+        <v>27239.398510999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>7.566500</v>
+        <v>7.5664999999999996</v>
       </c>
       <c r="AB5" s="1">
-        <v>962.139000</v>
+        <v>962.13900000000001</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.193200</v>
+        <v>-77.193200000000004</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>27249.205410</v>
+        <v>27249.205409999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>7.569224</v>
+        <v>7.5692240000000002</v>
       </c>
       <c r="AG5" s="1">
-        <v>966.697000</v>
+        <v>966.697</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.752500</v>
+        <v>-74.752499999999998</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>27259.359047</v>
+        <v>27259.359047000002</v>
       </c>
       <c r="AK5" s="1">
         <v>7.572044</v>
       </c>
       <c r="AL5" s="1">
-        <v>973.760000</v>
+        <v>973.76</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.208100</v>
+        <v>-79.208100000000002</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>27269.632679</v>
+        <v>27269.632678999998</v>
       </c>
       <c r="AP5" s="1">
-        <v>7.574898</v>
+        <v>7.5748980000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>981.670000</v>
+        <v>981.67</v>
       </c>
       <c r="AR5" s="1">
-        <v>-90.654700</v>
+        <v>-90.654700000000005</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>27280.625977</v>
       </c>
       <c r="AU5" s="1">
-        <v>7.577952</v>
+        <v>7.5779519999999998</v>
       </c>
       <c r="AV5" s="1">
-        <v>991.360000</v>
+        <v>991.36</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.254000</v>
+        <v>-108.254</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>27292.084752</v>
+        <v>27292.084751999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>7.581135</v>
+        <v>7.5811349999999997</v>
       </c>
       <c r="BA5" s="1">
-        <v>999.469000</v>
+        <v>999.46900000000005</v>
       </c>
       <c r="BB5" s="1">
-        <v>-123.836000</v>
+        <v>-123.836</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>27303.100698</v>
+        <v>27303.100697999998</v>
       </c>
       <c r="BE5" s="1">
-        <v>7.584195</v>
+        <v>7.5841950000000002</v>
       </c>
       <c r="BF5" s="1">
-        <v>1037.570000</v>
+        <v>1037.57</v>
       </c>
       <c r="BG5" s="1">
-        <v>-195.869000</v>
+        <v>-195.869</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>27314.222492</v>
+        <v>27314.222492000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>7.587284</v>
+        <v>7.5872840000000004</v>
       </c>
       <c r="BK5" s="1">
-        <v>1103.970000</v>
+        <v>1103.97</v>
       </c>
       <c r="BL5" s="1">
-        <v>-313.075000</v>
+        <v>-313.07499999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>27325.751005</v>
+        <v>27325.751004999998</v>
       </c>
       <c r="BO5" s="1">
-        <v>7.590486</v>
+        <v>7.5904860000000003</v>
       </c>
       <c r="BP5" s="1">
-        <v>1212.490000</v>
+        <v>1212.49</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-497.423000</v>
+        <v>-497.423</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>27336.560816</v>
+        <v>27336.560816000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>7.593489</v>
+        <v>7.5934889999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1334.730000</v>
+        <v>1334.73</v>
       </c>
       <c r="BV5" s="1">
-        <v>-699.456000</v>
+        <v>-699.45600000000002</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>27348.286767</v>
+        <v>27348.286767000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>7.596746</v>
+        <v>7.5967460000000004</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1470.970000</v>
+        <v>1470.97</v>
       </c>
       <c r="CA5" s="1">
-        <v>-913.934000</v>
+        <v>-913.93399999999997</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>27359.415969</v>
+        <v>27359.415969000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>7.599838</v>
+        <v>7.5998380000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1828.570000</v>
+        <v>1828.57</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1424.160000</v>
+        <v>-1424.16</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>27188.162771</v>
+        <v>27188.162770999999</v>
       </c>
       <c r="B6" s="1">
-        <v>7.552267</v>
+        <v>7.5522669999999996</v>
       </c>
       <c r="C6" s="1">
-        <v>899.805000</v>
+        <v>899.80499999999995</v>
       </c>
       <c r="D6" s="1">
-        <v>-202.443000</v>
+        <v>-202.44300000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>27198.210760</v>
+        <v>27198.210760000002</v>
       </c>
       <c r="G6" s="1">
         <v>7.555059</v>
       </c>
       <c r="H6" s="1">
-        <v>918.037000</v>
+        <v>918.03700000000003</v>
       </c>
       <c r="I6" s="1">
-        <v>-171.100000</v>
+        <v>-171.1</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>27208.758895</v>
+        <v>27208.758894999999</v>
       </c>
       <c r="L6" s="1">
-        <v>7.557989</v>
+        <v>7.5579890000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>941.483000</v>
+        <v>941.48299999999995</v>
       </c>
       <c r="N6" s="1">
-        <v>-121.258000</v>
+        <v>-121.258</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>27219.288218</v>
+        <v>27219.288218000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>7.560913</v>
+        <v>7.5609130000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>948.399000</v>
+        <v>948.399</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.638000</v>
+        <v>-104.63800000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>27229.492941</v>
       </c>
       <c r="V6" s="1">
-        <v>7.563748</v>
+        <v>7.5637480000000004</v>
       </c>
       <c r="W6" s="1">
-        <v>955.046000</v>
+        <v>955.04600000000005</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.233500</v>
+        <v>-89.233500000000006</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>27239.677760</v>
+        <v>27239.677759999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>7.566577</v>
+        <v>7.5665769999999997</v>
       </c>
       <c r="AB6" s="1">
-        <v>962.103000</v>
+        <v>962.10299999999995</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.118200</v>
+        <v>-77.118200000000002</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>27249.548642</v>
+        <v>27249.548642000002</v>
       </c>
       <c r="AF6" s="1">
-        <v>7.569319</v>
+        <v>7.5693190000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>966.740000</v>
+        <v>966.74</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.772900</v>
+        <v>-74.772900000000007</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>27259.707732</v>
+        <v>27259.707731999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>7.572141</v>
+        <v>7.5721410000000002</v>
       </c>
       <c r="AL6" s="1">
-        <v>973.769000</v>
+        <v>973.76900000000001</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.227200</v>
+        <v>-79.227199999999996</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>27269.993241</v>
       </c>
       <c r="AP6" s="1">
-        <v>7.574998</v>
+        <v>7.5749979999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>981.661000</v>
+        <v>981.66099999999994</v>
       </c>
       <c r="AR6" s="1">
-        <v>-90.685800</v>
+        <v>-90.6858</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>27281.353111</v>
       </c>
       <c r="AU6" s="1">
-        <v>7.578154</v>
+        <v>7.5781539999999996</v>
       </c>
       <c r="AV6" s="1">
-        <v>991.347000</v>
+        <v>991.34699999999998</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.256000</v>
+        <v>-108.256</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>27292.461017</v>
+        <v>27292.461017000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>7.581239</v>
+        <v>7.5812390000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>999.471000</v>
+        <v>999.471</v>
       </c>
       <c r="BB6" s="1">
-        <v>-123.814000</v>
+        <v>-123.81399999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>27303.481130</v>
+        <v>27303.48113</v>
       </c>
       <c r="BE6" s="1">
-        <v>7.584300</v>
+        <v>7.5842999999999998</v>
       </c>
       <c r="BF6" s="1">
-        <v>1037.590000</v>
+        <v>1037.5899999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-195.863000</v>
+        <v>-195.863</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>27314.597467</v>
       </c>
       <c r="BJ6" s="1">
-        <v>7.587388</v>
+        <v>7.5873879999999998</v>
       </c>
       <c r="BK6" s="1">
-        <v>1103.940000</v>
+        <v>1103.94</v>
       </c>
       <c r="BL6" s="1">
-        <v>-313.078000</v>
+        <v>-313.07799999999997</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>27326.482637</v>
+        <v>27326.482637000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>7.590690</v>
+        <v>7.5906900000000004</v>
       </c>
       <c r="BP6" s="1">
-        <v>1212.460000</v>
+        <v>1212.46</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-497.427000</v>
+        <v>-497.42700000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>27337.296383</v>
+        <v>27337.296383000001</v>
       </c>
       <c r="BT6" s="1">
         <v>7.593693</v>
       </c>
       <c r="BU6" s="1">
-        <v>1334.690000</v>
+        <v>1334.69</v>
       </c>
       <c r="BV6" s="1">
-        <v>-699.452000</v>
+        <v>-699.452</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>27348.450416</v>
       </c>
       <c r="BY6" s="1">
-        <v>7.596792</v>
+        <v>7.5967919999999998</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1470.880000</v>
+        <v>1470.88</v>
       </c>
       <c r="CA6" s="1">
-        <v>-914.016000</v>
+        <v>-914.01599999999996</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>27359.933297</v>
       </c>
       <c r="CD6" s="1">
-        <v>7.599981</v>
+        <v>7.5999809999999997</v>
       </c>
       <c r="CE6" s="1">
-        <v>1828.560000</v>
+        <v>1828.56</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1424.100000</v>
+        <v>-1424.1</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>27188.502034</v>
+        <v>27188.502034000001</v>
       </c>
       <c r="B7" s="1">
-        <v>7.552362</v>
+        <v>7.5523619999999996</v>
       </c>
       <c r="C7" s="1">
-        <v>899.869000</v>
+        <v>899.86900000000003</v>
       </c>
       <c r="D7" s="1">
-        <v>-202.499000</v>
+        <v>-202.499</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>27198.639303</v>
       </c>
       <c r="G7" s="1">
-        <v>7.555178</v>
+        <v>7.5551779999999997</v>
       </c>
       <c r="H7" s="1">
-        <v>918.165000</v>
+        <v>918.16499999999996</v>
       </c>
       <c r="I7" s="1">
-        <v>-170.731000</v>
+        <v>-170.73099999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>27209.032935</v>
+        <v>27209.032934999999</v>
       </c>
       <c r="L7" s="1">
         <v>7.558065</v>
       </c>
       <c r="M7" s="1">
-        <v>941.509000</v>
+        <v>941.50900000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-121.262000</v>
+        <v>-121.262</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>27219.567465</v>
       </c>
       <c r="Q7" s="1">
-        <v>7.560991</v>
+        <v>7.5609909999999996</v>
       </c>
       <c r="R7" s="1">
-        <v>948.341000</v>
+        <v>948.34100000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.612000</v>
+        <v>-104.61199999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>27229.836635</v>
       </c>
       <c r="V7" s="1">
-        <v>7.563844</v>
+        <v>7.5638439999999996</v>
       </c>
       <c r="W7" s="1">
-        <v>954.953000</v>
+        <v>954.95299999999997</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.215800</v>
+        <v>-89.215800000000002</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>27240.023472</v>
+        <v>27240.023472000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>7.566673</v>
+        <v>7.5666729999999998</v>
       </c>
       <c r="AB7" s="1">
-        <v>962.160000</v>
+        <v>962.16</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.147500</v>
+        <v>-77.147499999999994</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>27249.892402</v>
+        <v>27249.892402000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>7.569415</v>
+        <v>7.5694150000000002</v>
       </c>
       <c r="AG7" s="1">
-        <v>966.728000</v>
+        <v>966.72799999999995</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.767300</v>
+        <v>-74.767300000000006</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>27260.405109</v>
+        <v>27260.405108999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>7.572335</v>
+        <v>7.5723349999999998</v>
       </c>
       <c r="AL7" s="1">
-        <v>973.791000</v>
+        <v>973.79100000000005</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.235900</v>
+        <v>-79.235900000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>27270.715910</v>
+        <v>27270.715909999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>7.575199</v>
+        <v>7.5751989999999996</v>
       </c>
       <c r="AQ7" s="1">
-        <v>981.657000</v>
+        <v>981.65700000000004</v>
       </c>
       <c r="AR7" s="1">
-        <v>-90.652700</v>
+        <v>-90.652699999999996</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>27281.748920</v>
+        <v>27281.748920000002</v>
       </c>
       <c r="AU7" s="1">
-        <v>7.578264</v>
+        <v>7.5782639999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>991.346000</v>
+        <v>991.346</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.267000</v>
+        <v>-108.267</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>27292.850873</v>
+        <v>27292.850872999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>7.581347</v>
+        <v>7.5813470000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>999.448000</v>
+        <v>999.44799999999998</v>
       </c>
       <c r="BB7" s="1">
-        <v>-123.830000</v>
+        <v>-123.83</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>27303.839242</v>
+        <v>27303.839241999998</v>
       </c>
       <c r="BE7" s="1">
-        <v>7.584400</v>
+        <v>7.5843999999999996</v>
       </c>
       <c r="BF7" s="1">
-        <v>1037.550000</v>
+        <v>1037.55</v>
       </c>
       <c r="BG7" s="1">
-        <v>-195.834000</v>
+        <v>-195.834</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>27315.277978</v>
+        <v>27315.277977999998</v>
       </c>
       <c r="BJ7" s="1">
-        <v>7.587577</v>
+        <v>7.5875769999999996</v>
       </c>
       <c r="BK7" s="1">
-        <v>1103.940000</v>
+        <v>1103.94</v>
       </c>
       <c r="BL7" s="1">
-        <v>-313.066000</v>
+        <v>-313.06599999999997</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>27326.991003</v>
+        <v>27326.991002999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>7.590831</v>
+        <v>7.5908309999999997</v>
       </c>
       <c r="BP7" s="1">
-        <v>1212.510000</v>
+        <v>1212.51</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-497.446000</v>
+        <v>-497.44600000000003</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>27337.409966</v>
+        <v>27337.409965999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>7.593725</v>
+        <v>7.5937250000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1334.550000</v>
+        <v>1334.55</v>
       </c>
       <c r="BV7" s="1">
-        <v>-699.495000</v>
+        <v>-699.495</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>27348.875488</v>
+        <v>27348.875488000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>7.596910</v>
+        <v>7.5969100000000003</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1470.880000</v>
+        <v>1470.88</v>
       </c>
       <c r="CA7" s="1">
-        <v>-914.001000</v>
+        <v>-914.00099999999998</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>27360.483391</v>
+        <v>27360.483391000002</v>
       </c>
       <c r="CD7" s="1">
-        <v>7.600134</v>
+        <v>7.6001339999999997</v>
       </c>
       <c r="CE7" s="1">
-        <v>1828.250000</v>
+        <v>1828.25</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1424.880000</v>
+        <v>-1424.88</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>27188.925164</v>
       </c>
       <c r="B8" s="1">
-        <v>7.552479</v>
+        <v>7.5524789999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>899.906000</v>
+        <v>899.90599999999995</v>
       </c>
       <c r="D8" s="1">
-        <v>-202.407000</v>
+        <v>-202.40700000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>27198.912564</v>
+        <v>27198.912563999998</v>
       </c>
       <c r="G8" s="1">
-        <v>7.555253</v>
+        <v>7.5552530000000004</v>
       </c>
       <c r="H8" s="1">
-        <v>918.167000</v>
+        <v>918.16700000000003</v>
       </c>
       <c r="I8" s="1">
-        <v>-171.161000</v>
+        <v>-171.161</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>27209.376696</v>
+        <v>27209.376695999999</v>
       </c>
       <c r="L8" s="1">
-        <v>7.558160</v>
+        <v>7.55816</v>
       </c>
       <c r="M8" s="1">
-        <v>941.619000</v>
+        <v>941.61900000000003</v>
       </c>
       <c r="N8" s="1">
-        <v>-121.195000</v>
+        <v>-121.19499999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>27219.917672</v>
       </c>
       <c r="Q8" s="1">
-        <v>7.561088</v>
+        <v>7.5610879999999998</v>
       </c>
       <c r="R8" s="1">
-        <v>948.346000</v>
+        <v>948.346</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.592000</v>
+        <v>-104.592</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>27230.180363</v>
+        <v>27230.180362999999</v>
       </c>
       <c r="V8" s="1">
-        <v>7.563939</v>
+        <v>7.5639390000000004</v>
       </c>
       <c r="W8" s="1">
-        <v>954.988000</v>
+        <v>954.98800000000006</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.174700</v>
+        <v>-89.174700000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>27240.587459</v>
+        <v>27240.587458999998</v>
       </c>
       <c r="AA8" s="1">
-        <v>7.566830</v>
+        <v>7.5668300000000004</v>
       </c>
       <c r="AB8" s="1">
-        <v>962.073000</v>
+        <v>962.07299999999998</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.137400</v>
+        <v>-77.1374</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>27250.579328</v>
       </c>
       <c r="AF8" s="1">
-        <v>7.569605</v>
+        <v>7.5696050000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>966.723000</v>
+        <v>966.72299999999996</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.752300</v>
+        <v>-74.752300000000005</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>27260.753266</v>
       </c>
       <c r="AK8" s="1">
-        <v>7.572431</v>
+        <v>7.5724309999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>973.792000</v>
+        <v>973.79200000000003</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.236300</v>
+        <v>-79.2363</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>27271.075509</v>
+        <v>27271.075508999998</v>
       </c>
       <c r="AP8" s="1">
-        <v>7.575299</v>
+        <v>7.5752990000000002</v>
       </c>
       <c r="AQ8" s="1">
-        <v>981.669000</v>
+        <v>981.66899999999998</v>
       </c>
       <c r="AR8" s="1">
-        <v>-90.642900</v>
+        <v>-90.642899999999997</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>27282.111495</v>
+        <v>27282.111495000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>7.578364</v>
+        <v>7.5783639999999997</v>
       </c>
       <c r="AV8" s="1">
-        <v>991.345000</v>
+        <v>991.34500000000003</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.255000</v>
+        <v>-108.255</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>27293.516536</v>
+        <v>27293.516535999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>7.581532</v>
+        <v>7.5815320000000002</v>
       </c>
       <c r="BA8" s="1">
-        <v>999.463000</v>
+        <v>999.46299999999997</v>
       </c>
       <c r="BB8" s="1">
-        <v>-123.803000</v>
+        <v>-123.803</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>27304.517272</v>
+        <v>27304.517272000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>7.584588</v>
+        <v>7.5845880000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1037.600000</v>
+        <v>1037.5999999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-195.867000</v>
+        <v>-195.86699999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>27315.722891</v>
+        <v>27315.722891000001</v>
       </c>
       <c r="BJ8" s="1">
         <v>7.587701</v>
       </c>
       <c r="BK8" s="1">
-        <v>1103.990000</v>
+        <v>1103.99</v>
       </c>
       <c r="BL8" s="1">
-        <v>-313.087000</v>
+        <v>-313.08699999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>27327.412108</v>
@@ -2218,13 +2634,13 @@
         <v>7.590948</v>
       </c>
       <c r="BP8" s="1">
-        <v>1212.470000</v>
+        <v>1212.47</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-497.429000</v>
+        <v>-497.42899999999997</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>27337.818669</v>
@@ -2233,936 +2649,936 @@
         <v>7.593839</v>
       </c>
       <c r="BU8" s="1">
-        <v>1334.500000</v>
+        <v>1334.5</v>
       </c>
       <c r="BV8" s="1">
-        <v>-699.529000</v>
+        <v>-699.529</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>27349.319902</v>
+        <v>27349.319901999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>7.597033</v>
+        <v>7.5970329999999997</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1471.040000</v>
+        <v>1471.04</v>
       </c>
       <c r="CA8" s="1">
-        <v>-913.960000</v>
+        <v>-913.96</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>27361.014574</v>
+        <v>27361.014574000001</v>
       </c>
       <c r="CD8" s="1">
         <v>7.600282</v>
       </c>
       <c r="CE8" s="1">
-        <v>1828.880000</v>
+        <v>1828.88</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1423.870000</v>
+        <v>-1423.87</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>27189.202881</v>
+        <v>27189.202881000001</v>
       </c>
       <c r="B9" s="1">
         <v>7.552556</v>
       </c>
       <c r="C9" s="1">
-        <v>899.828000</v>
+        <v>899.82799999999997</v>
       </c>
       <c r="D9" s="1">
-        <v>-202.481000</v>
+        <v>-202.48099999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>27199.257780</v>
+        <v>27199.25778</v>
       </c>
       <c r="G9" s="1">
-        <v>7.555349</v>
+        <v>7.5553489999999996</v>
       </c>
       <c r="H9" s="1">
-        <v>917.634000</v>
+        <v>917.63400000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-170.948000</v>
+        <v>-170.94800000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>27209.725350</v>
+        <v>27209.725350000001</v>
       </c>
       <c r="L9" s="1">
-        <v>7.558257</v>
+        <v>7.5582570000000002</v>
       </c>
       <c r="M9" s="1">
-        <v>941.530000</v>
+        <v>941.53</v>
       </c>
       <c r="N9" s="1">
-        <v>-121.390000</v>
+        <v>-121.39</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>27220.266856</v>
+        <v>27220.266855999998</v>
       </c>
       <c r="Q9" s="1">
         <v>7.561185</v>
       </c>
       <c r="R9" s="1">
-        <v>948.399000</v>
+        <v>948.399</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.594000</v>
+        <v>-104.59399999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>27230.866858</v>
+        <v>27230.866858000001</v>
       </c>
       <c r="V9" s="1">
-        <v>7.564130</v>
+        <v>7.5641299999999996</v>
       </c>
       <c r="W9" s="1">
-        <v>954.978000</v>
+        <v>954.97799999999995</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.154600</v>
+        <v>-89.154600000000002</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>27240.720381</v>
+        <v>27240.720380999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>7.566867</v>
+        <v>7.5668670000000002</v>
       </c>
       <c r="AB9" s="1">
-        <v>961.993000</v>
+        <v>961.99300000000005</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.186300</v>
+        <v>-77.186300000000003</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>27250.925536</v>
+        <v>27250.925535999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>7.569702</v>
+        <v>7.5697020000000004</v>
       </c>
       <c r="AG9" s="1">
-        <v>966.740000</v>
+        <v>966.74</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.720900</v>
+        <v>-74.7209</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>27261.099010</v>
+        <v>27261.099010000002</v>
       </c>
       <c r="AK9" s="1">
-        <v>7.572528</v>
+        <v>7.5725280000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>973.776000</v>
+        <v>973.77599999999995</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.206300</v>
+        <v>-79.206299999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>27271.436484</v>
+        <v>27271.436484000002</v>
       </c>
       <c r="AP9" s="1">
         <v>7.575399</v>
       </c>
       <c r="AQ9" s="1">
-        <v>981.653000</v>
+        <v>981.65300000000002</v>
       </c>
       <c r="AR9" s="1">
-        <v>-90.666800</v>
+        <v>-90.666799999999995</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>27282.793030</v>
+        <v>27282.793030000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>7.578554</v>
+        <v>7.5785539999999996</v>
       </c>
       <c r="AV9" s="1">
-        <v>991.339000</v>
+        <v>991.33900000000006</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.257000</v>
+        <v>-108.25700000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>27293.926696</v>
+        <v>27293.926695999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>7.581646</v>
+        <v>7.5816460000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>999.464000</v>
+        <v>999.46400000000006</v>
       </c>
       <c r="BB9" s="1">
-        <v>-123.811000</v>
+        <v>-123.81100000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>27304.956234</v>
+        <v>27304.956234000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>7.584710</v>
+        <v>7.5847100000000003</v>
       </c>
       <c r="BF9" s="1">
-        <v>1037.530000</v>
+        <v>1037.53</v>
       </c>
       <c r="BG9" s="1">
-        <v>-195.852000</v>
+        <v>-195.852</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>27316.100345</v>
+        <v>27316.100344999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>7.587806</v>
+        <v>7.5878059999999996</v>
       </c>
       <c r="BK9" s="1">
-        <v>1103.990000</v>
+        <v>1103.99</v>
       </c>
       <c r="BL9" s="1">
-        <v>-313.103000</v>
+        <v>-313.10300000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>27327.806458</v>
+        <v>27327.806457999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>7.591057</v>
+        <v>7.5910570000000002</v>
       </c>
       <c r="BP9" s="1">
-        <v>1212.490000</v>
+        <v>1212.49</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-497.418000</v>
+        <v>-497.41800000000001</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>27338.247212</v>
+        <v>27338.247211999998</v>
       </c>
       <c r="BT9" s="1">
-        <v>7.593958</v>
+        <v>7.5939579999999998</v>
       </c>
       <c r="BU9" s="1">
-        <v>1334.310000</v>
+        <v>1334.31</v>
       </c>
       <c r="BV9" s="1">
-        <v>-699.372000</v>
+        <v>-699.37199999999996</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>27349.756909</v>
       </c>
       <c r="BY9" s="1">
-        <v>7.597155</v>
+        <v>7.5971549999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1470.950000</v>
+        <v>1470.95</v>
       </c>
       <c r="CA9" s="1">
-        <v>-913.997000</v>
+        <v>-913.99699999999996</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>27361.534381</v>
+        <v>27361.534381000001</v>
       </c>
       <c r="CD9" s="1">
-        <v>7.600426</v>
+        <v>7.6004259999999997</v>
       </c>
       <c r="CE9" s="1">
-        <v>1827.860000</v>
+        <v>1827.86</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1423.330000</v>
+        <v>-1423.33</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>27189.544625</v>
+        <v>27189.544624999999</v>
       </c>
       <c r="B10" s="1">
         <v>7.552651</v>
       </c>
       <c r="C10" s="1">
-        <v>899.991000</v>
+        <v>899.99099999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-202.308000</v>
+        <v>-202.30799999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>27199.603491</v>
+        <v>27199.603491000002</v>
       </c>
       <c r="G10" s="1">
-        <v>7.555445</v>
+        <v>7.5554449999999997</v>
       </c>
       <c r="H10" s="1">
-        <v>917.451000</v>
+        <v>917.45100000000002</v>
       </c>
       <c r="I10" s="1">
-        <v>-171.489000</v>
+        <v>-171.489</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>27210.418756</v>
+        <v>27210.418755999999</v>
       </c>
       <c r="L10" s="1">
-        <v>7.558450</v>
+        <v>7.5584499999999997</v>
       </c>
       <c r="M10" s="1">
-        <v>941.507000</v>
+        <v>941.50699999999995</v>
       </c>
       <c r="N10" s="1">
-        <v>-121.241000</v>
+        <v>-121.241</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>27220.961256</v>
+        <v>27220.961255999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>7.561378</v>
+        <v>7.5613780000000004</v>
       </c>
       <c r="R10" s="1">
-        <v>948.381000</v>
+        <v>948.38099999999997</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.625000</v>
+        <v>-104.625</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>27231.209594</v>
       </c>
       <c r="V10" s="1">
-        <v>7.564225</v>
+        <v>7.5642250000000004</v>
       </c>
       <c r="W10" s="1">
-        <v>955.013000</v>
+        <v>955.01300000000003</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.091600</v>
+        <v>-89.0916</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>27241.069533</v>
+        <v>27241.069533000002</v>
       </c>
       <c r="AA10" s="1">
-        <v>7.566964</v>
+        <v>7.5669639999999996</v>
       </c>
       <c r="AB10" s="1">
-        <v>962.088000</v>
+        <v>962.08799999999997</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.131300</v>
+        <v>-77.131299999999996</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>27251.271743</v>
+        <v>27251.271743000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>7.569798</v>
+        <v>7.5697979999999996</v>
       </c>
       <c r="AG10" s="1">
-        <v>966.716000</v>
+        <v>966.71600000000001</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.776200</v>
+        <v>-74.776200000000003</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>27261.755717</v>
       </c>
       <c r="AK10" s="1">
-        <v>7.572710</v>
+        <v>7.5727099999999998</v>
       </c>
       <c r="AL10" s="1">
-        <v>973.766000</v>
+        <v>973.76599999999996</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.247700</v>
+        <v>-79.247699999999995</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>27272.132484</v>
+        <v>27272.132484000002</v>
       </c>
       <c r="AP10" s="1">
-        <v>7.575592</v>
+        <v>7.5755920000000003</v>
       </c>
       <c r="AQ10" s="1">
-        <v>981.669000</v>
+        <v>981.66899999999998</v>
       </c>
       <c r="AR10" s="1">
-        <v>-90.674100</v>
+        <v>-90.674099999999996</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>27283.240924</v>
+        <v>27283.240924000002</v>
       </c>
       <c r="AU10" s="1">
         <v>7.578678</v>
       </c>
       <c r="AV10" s="1">
-        <v>991.363000</v>
+        <v>991.36300000000006</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.231000</v>
+        <v>-108.23099999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>27294.312582</v>
+        <v>27294.312581999999</v>
       </c>
       <c r="AZ10" s="1">
         <v>7.581753</v>
       </c>
       <c r="BA10" s="1">
-        <v>999.461000</v>
+        <v>999.46100000000001</v>
       </c>
       <c r="BB10" s="1">
-        <v>-123.809000</v>
+        <v>-123.809</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>27305.316343</v>
+        <v>27305.316342999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>7.584810</v>
+        <v>7.5848100000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1037.590000</v>
+        <v>1037.5899999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-195.850000</v>
+        <v>-195.85</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>27316.473833</v>
       </c>
       <c r="BJ10" s="1">
-        <v>7.587909</v>
+        <v>7.5879089999999998</v>
       </c>
       <c r="BK10" s="1">
-        <v>1103.940000</v>
+        <v>1103.94</v>
       </c>
       <c r="BL10" s="1">
-        <v>-313.067000</v>
+        <v>-313.06700000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>27328.233979</v>
+        <v>27328.233979000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>7.591176</v>
+        <v>7.5911759999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1212.470000</v>
+        <v>1212.47</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-497.436000</v>
+        <v>-497.43599999999998</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>27339.076523</v>
       </c>
       <c r="BT10" s="1">
-        <v>7.594188</v>
+        <v>7.5941879999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1334.260000</v>
+        <v>1334.26</v>
       </c>
       <c r="BV10" s="1">
-        <v>-699.244000</v>
+        <v>-699.24400000000003</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>27350.211213</v>
+        <v>27350.211212999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>7.597281</v>
+        <v>7.5972809999999997</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1470.850000</v>
+        <v>1470.85</v>
       </c>
       <c r="CA10" s="1">
-        <v>-913.902000</v>
+        <v>-913.90200000000004</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>27362.051747</v>
+        <v>27362.051747000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>7.600570</v>
+        <v>7.6005700000000003</v>
       </c>
       <c r="CE10" s="1">
-        <v>1827.270000</v>
+        <v>1827.27</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1424.070000</v>
+        <v>-1424.07</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>27189.883424</v>
       </c>
       <c r="B11" s="1">
-        <v>7.552745</v>
+        <v>7.5527449999999998</v>
       </c>
       <c r="C11" s="1">
-        <v>899.946000</v>
+        <v>899.94600000000003</v>
       </c>
       <c r="D11" s="1">
-        <v>-202.454000</v>
+        <v>-202.45400000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>27200.289988</v>
       </c>
       <c r="G11" s="1">
-        <v>7.555636</v>
+        <v>7.5556359999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>918.086000</v>
+        <v>918.08600000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-171.172000</v>
+        <v>-171.172</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>27210.770931</v>
+        <v>27210.770930999999</v>
       </c>
       <c r="L11" s="1">
-        <v>7.558547</v>
+        <v>7.5585469999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>941.414000</v>
+        <v>941.41399999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-121.214000</v>
+        <v>-121.214</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>27221.312391</v>
+        <v>27221.312390999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>7.561476</v>
+        <v>7.5614759999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>948.371000</v>
+        <v>948.37099999999998</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.583000</v>
+        <v>-104.583</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>27231.553785</v>
       </c>
       <c r="V11" s="1">
-        <v>7.564320</v>
+        <v>7.5643200000000004</v>
       </c>
       <c r="W11" s="1">
-        <v>954.964000</v>
+        <v>954.96400000000006</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.194600</v>
+        <v>-89.194599999999994</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>27241.735688</v>
+        <v>27241.735688000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>7.567149</v>
+        <v>7.5671489999999997</v>
       </c>
       <c r="AB11" s="1">
-        <v>962.054000</v>
+        <v>962.05399999999997</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.206500</v>
+        <v>-77.206500000000005</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>27251.929438</v>
+        <v>27251.929437999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>7.569980</v>
+        <v>7.5699800000000002</v>
       </c>
       <c r="AG11" s="1">
-        <v>966.695000</v>
+        <v>966.69500000000005</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.761300</v>
+        <v>-74.761300000000006</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>27262.147025</v>
+        <v>27262.147024999998</v>
       </c>
       <c r="AK11" s="1">
         <v>7.572819</v>
       </c>
       <c r="AL11" s="1">
-        <v>973.789000</v>
+        <v>973.78899999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.251700</v>
+        <v>-79.2517</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>27272.547139</v>
+        <v>27272.547138999998</v>
       </c>
       <c r="AP11" s="1">
-        <v>7.575708</v>
+        <v>7.5757079999999997</v>
       </c>
       <c r="AQ11" s="1">
-        <v>981.670000</v>
+        <v>981.67</v>
       </c>
       <c r="AR11" s="1">
-        <v>-90.691000</v>
+        <v>-90.691000000000003</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>27283.606932</v>
+        <v>27283.606931999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>7.578780</v>
+        <v>7.5787800000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>991.360000</v>
+        <v>991.36</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.256000</v>
+        <v>-108.256</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>27294.675158</v>
+        <v>27294.675157999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>7.581854</v>
+        <v>7.5818539999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>999.466000</v>
+        <v>999.46600000000001</v>
       </c>
       <c r="BB11" s="1">
-        <v>-123.828000</v>
+        <v>-123.828</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>27305.929410</v>
+        <v>27305.929410000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>7.584980</v>
+        <v>7.5849799999999998</v>
       </c>
       <c r="BF11" s="1">
-        <v>1037.570000</v>
+        <v>1037.57</v>
       </c>
       <c r="BG11" s="1">
-        <v>-195.854000</v>
+        <v>-195.85400000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>27316.894937</v>
+        <v>27316.894937000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>7.588026</v>
+        <v>7.5880260000000002</v>
       </c>
       <c r="BK11" s="1">
-        <v>1103.990000</v>
+        <v>1103.99</v>
       </c>
       <c r="BL11" s="1">
-        <v>-313.104000</v>
+        <v>-313.10399999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>27328.627801</v>
+        <v>27328.627800999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>7.591286</v>
+        <v>7.5912860000000002</v>
       </c>
       <c r="BP11" s="1">
-        <v>1212.480000</v>
+        <v>1212.48</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-497.446000</v>
+        <v>-497.44600000000003</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>27339.496635</v>
       </c>
       <c r="BT11" s="1">
-        <v>7.594305</v>
+        <v>7.5943050000000003</v>
       </c>
       <c r="BU11" s="1">
-        <v>1334.190000</v>
+        <v>1334.19</v>
       </c>
       <c r="BV11" s="1">
-        <v>-699.159000</v>
+        <v>-699.15899999999999</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>27350.659630</v>
+        <v>27350.659629999998</v>
       </c>
       <c r="BY11" s="1">
-        <v>7.597405</v>
+        <v>7.5974050000000002</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1470.980000</v>
+        <v>1470.98</v>
       </c>
       <c r="CA11" s="1">
-        <v>-914.056000</v>
+        <v>-914.05600000000004</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>27362.567548</v>
+        <v>27362.567547999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>7.600713</v>
+        <v>7.6007129999999998</v>
       </c>
       <c r="CE11" s="1">
-        <v>1828.180000</v>
+        <v>1828.18</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1424.680000</v>
+        <v>-1424.68</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>27190.569360</v>
+        <v>27190.569360000001</v>
       </c>
       <c r="B12" s="1">
-        <v>7.552936</v>
+        <v>7.5529359999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>899.755000</v>
+        <v>899.755</v>
       </c>
       <c r="D12" s="1">
-        <v>-202.480000</v>
+        <v>-202.48</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>27200.638146</v>
+        <v>27200.638146000001</v>
       </c>
       <c r="G12" s="1">
         <v>7.555733</v>
       </c>
       <c r="H12" s="1">
-        <v>918.045000</v>
+        <v>918.04499999999996</v>
       </c>
       <c r="I12" s="1">
-        <v>-171.129000</v>
+        <v>-171.12899999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>27211.114181</v>
+        <v>27211.114181000001</v>
       </c>
       <c r="L12" s="1">
         <v>7.558643</v>
       </c>
       <c r="M12" s="1">
-        <v>941.668000</v>
+        <v>941.66800000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-121.313000</v>
+        <v>-121.313</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>27221.662600</v>
+        <v>27221.6626</v>
       </c>
       <c r="Q12" s="1">
-        <v>7.561573</v>
+        <v>7.5615730000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>948.327000</v>
+        <v>948.327</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.606000</v>
+        <v>-104.60599999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>27232.202552</v>
+        <v>27232.202551999999</v>
       </c>
       <c r="V12" s="1">
-        <v>7.564501</v>
+        <v>7.5645009999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>955.013000</v>
+        <v>955.01300000000003</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.158400</v>
+        <v>-89.1584</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>27242.117083</v>
+        <v>27242.117083000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>7.567255</v>
+        <v>7.5672550000000003</v>
       </c>
       <c r="AB12" s="1">
-        <v>962.046000</v>
+        <v>962.04600000000005</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.197100</v>
+        <v>-77.197100000000006</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>27252.299454</v>
       </c>
       <c r="AF12" s="1">
-        <v>7.570083</v>
+        <v>7.5700830000000003</v>
       </c>
       <c r="AG12" s="1">
-        <v>966.737000</v>
+        <v>966.73699999999997</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.753800</v>
+        <v>-74.753799999999998</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>27262.493232</v>
+        <v>27262.493232000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>7.572915</v>
+        <v>7.5729150000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>973.779000</v>
+        <v>973.779</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.258100</v>
+        <v>-79.258099999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>27272.923604</v>
@@ -3171,2069 +3587,2069 @@
         <v>7.575812</v>
       </c>
       <c r="AQ12" s="1">
-        <v>981.660000</v>
+        <v>981.66</v>
       </c>
       <c r="AR12" s="1">
-        <v>-90.679700</v>
+        <v>-90.679699999999997</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>27283.972484</v>
+        <v>27283.972484000002</v>
       </c>
       <c r="AU12" s="1">
         <v>7.578881</v>
       </c>
       <c r="AV12" s="1">
-        <v>991.336000</v>
+        <v>991.33600000000001</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.264000</v>
+        <v>-108.264</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>27295.106183</v>
       </c>
       <c r="AZ12" s="1">
-        <v>7.581974</v>
+        <v>7.5819739999999998</v>
       </c>
       <c r="BA12" s="1">
-        <v>999.462000</v>
+        <v>999.46199999999999</v>
       </c>
       <c r="BB12" s="1">
-        <v>-123.827000</v>
+        <v>-123.827</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>27306.052886</v>
+        <v>27306.052886000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>7.585015</v>
+        <v>7.5850150000000003</v>
       </c>
       <c r="BF12" s="1">
-        <v>1037.560000</v>
+        <v>1037.56</v>
       </c>
       <c r="BG12" s="1">
-        <v>-195.859000</v>
+        <v>-195.85900000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>27317.246136</v>
+        <v>27317.246136000002</v>
       </c>
       <c r="BJ12" s="1">
-        <v>7.588124</v>
+        <v>7.5881239999999996</v>
       </c>
       <c r="BK12" s="1">
-        <v>1103.960000</v>
+        <v>1103.96</v>
       </c>
       <c r="BL12" s="1">
-        <v>-313.095000</v>
+        <v>-313.09500000000003</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>27329.046426</v>
+        <v>27329.046426000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>7.591402</v>
+        <v>7.5914020000000004</v>
       </c>
       <c r="BP12" s="1">
-        <v>1212.470000</v>
+        <v>1212.47</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-497.443000</v>
+        <v>-497.44299999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>27339.919259</v>
+        <v>27339.919258999998</v>
       </c>
       <c r="BT12" s="1">
-        <v>7.594422</v>
+        <v>7.5944219999999998</v>
       </c>
       <c r="BU12" s="1">
-        <v>1334.310000</v>
+        <v>1334.31</v>
       </c>
       <c r="BV12" s="1">
-        <v>-699.099000</v>
+        <v>-699.09900000000005</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>27351.117403</v>
       </c>
       <c r="BY12" s="1">
-        <v>7.597533</v>
+        <v>7.5975330000000003</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1471.030000</v>
+        <v>1471.03</v>
       </c>
       <c r="CA12" s="1">
-        <v>-914.101000</v>
+        <v>-914.101</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>27363.085403</v>
+        <v>27363.085403000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>7.600857</v>
+        <v>7.6008570000000004</v>
       </c>
       <c r="CE12" s="1">
-        <v>1828.700000</v>
+        <v>1828.7</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1423.440000</v>
+        <v>-1423.44</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>27190.915071</v>
+        <v>27190.915070999999</v>
       </c>
       <c r="B13" s="1">
         <v>7.553032</v>
       </c>
       <c r="C13" s="1">
-        <v>899.819000</v>
+        <v>899.81899999999996</v>
       </c>
       <c r="D13" s="1">
-        <v>-202.499000</v>
+        <v>-202.499</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>27200.982401</v>
+        <v>27200.982401000001</v>
       </c>
       <c r="G13" s="1">
         <v>7.555828</v>
       </c>
       <c r="H13" s="1">
-        <v>917.839000</v>
+        <v>917.83900000000006</v>
       </c>
       <c r="I13" s="1">
-        <v>-171.187000</v>
+        <v>-171.18700000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>27211.774331</v>
+        <v>27211.774331000001</v>
       </c>
       <c r="L13" s="1">
-        <v>7.558826</v>
+        <v>7.5588259999999998</v>
       </c>
       <c r="M13" s="1">
-        <v>941.702000</v>
+        <v>941.702</v>
       </c>
       <c r="N13" s="1">
-        <v>-121.306000</v>
+        <v>-121.306</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>27222.315799</v>
       </c>
       <c r="Q13" s="1">
-        <v>7.561754</v>
+        <v>7.5617539999999996</v>
       </c>
       <c r="R13" s="1">
-        <v>948.365000</v>
+        <v>948.36500000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.573000</v>
+        <v>-104.57299999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>27232.584009</v>
+        <v>27232.584008999998</v>
       </c>
       <c r="V13" s="1">
-        <v>7.564607</v>
+        <v>7.5646069999999996</v>
       </c>
       <c r="W13" s="1">
-        <v>955.065000</v>
+        <v>955.06500000000005</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.180800</v>
+        <v>-89.180800000000005</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>27242.464779</v>
+        <v>27242.464779000002</v>
       </c>
       <c r="AA13" s="1">
-        <v>7.567351</v>
+        <v>7.5673510000000004</v>
       </c>
       <c r="AB13" s="1">
-        <v>962.088000</v>
+        <v>962.08799999999997</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.227500</v>
+        <v>-77.227500000000006</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>27252.642221</v>
+        <v>27252.642220999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>7.570178</v>
+        <v>7.5701780000000003</v>
       </c>
       <c r="AG13" s="1">
-        <v>966.742000</v>
+        <v>966.74199999999996</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.768700</v>
+        <v>-74.768699999999995</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>27262.844896</v>
+        <v>27262.844895999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>7.573012</v>
+        <v>7.5730120000000003</v>
       </c>
       <c r="AL13" s="1">
-        <v>973.760000</v>
+        <v>973.76</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.228300</v>
+        <v>-79.228300000000004</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>27273.430514</v>
       </c>
       <c r="AP13" s="1">
-        <v>7.575953</v>
+        <v>7.5759530000000002</v>
       </c>
       <c r="AQ13" s="1">
-        <v>981.660000</v>
+        <v>981.66</v>
       </c>
       <c r="AR13" s="1">
-        <v>-90.706800</v>
+        <v>-90.706800000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>27284.390643</v>
+        <v>27284.390642999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>7.578997</v>
+        <v>7.5789970000000002</v>
       </c>
       <c r="AV13" s="1">
-        <v>991.357000</v>
+        <v>991.35699999999997</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.248000</v>
+        <v>-108.248</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>27295.389893</v>
       </c>
       <c r="AZ13" s="1">
-        <v>7.582053</v>
+        <v>7.5820530000000002</v>
       </c>
       <c r="BA13" s="1">
-        <v>999.463000</v>
+        <v>999.46299999999997</v>
       </c>
       <c r="BB13" s="1">
-        <v>-123.814000</v>
+        <v>-123.81399999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>27306.429846</v>
+        <v>27306.429845999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>7.585119</v>
+        <v>7.5851189999999997</v>
       </c>
       <c r="BF13" s="1">
-        <v>1037.590000</v>
+        <v>1037.5899999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-195.869000</v>
+        <v>-195.869</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>27317.623096</v>
+        <v>27317.623095999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>7.588229</v>
+        <v>7.5882290000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1103.980000</v>
+        <v>1103.98</v>
       </c>
       <c r="BL13" s="1">
-        <v>-313.091000</v>
+        <v>-313.09100000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>27329.444222</v>
+        <v>27329.444221999998</v>
       </c>
       <c r="BO13" s="1">
-        <v>7.591512</v>
+        <v>7.5915119999999998</v>
       </c>
       <c r="BP13" s="1">
-        <v>1212.490000</v>
+        <v>1212.49</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-497.418000</v>
+        <v>-497.41800000000001</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>27340.349793</v>
+        <v>27340.349793000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>7.594542</v>
+        <v>7.5945419999999997</v>
       </c>
       <c r="BU13" s="1">
-        <v>1334.310000</v>
+        <v>1334.31</v>
       </c>
       <c r="BV13" s="1">
-        <v>-699.001000</v>
+        <v>-699.00099999999998</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>27351.564809</v>
       </c>
       <c r="BY13" s="1">
-        <v>7.597657</v>
+        <v>7.5976569999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1470.850000</v>
+        <v>1470.85</v>
       </c>
       <c r="CA13" s="1">
-        <v>-914.000000</v>
+        <v>-914</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>27363.604684</v>
+        <v>27363.604684000002</v>
       </c>
       <c r="CD13" s="1">
-        <v>7.601001</v>
+        <v>7.6010010000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1828.880000</v>
+        <v>1828.88</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1424.090000</v>
+        <v>-1424.09</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>27191.253342</v>
       </c>
       <c r="B14" s="1">
-        <v>7.553126</v>
+        <v>7.5531259999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>899.755000</v>
+        <v>899.755</v>
       </c>
       <c r="D14" s="1">
-        <v>-202.188000</v>
+        <v>-202.18799999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>27201.633616</v>
+        <v>27201.633615999999</v>
       </c>
       <c r="G14" s="1">
-        <v>7.556009</v>
+        <v>7.5560090000000004</v>
       </c>
       <c r="H14" s="1">
-        <v>917.929000</v>
+        <v>917.92899999999997</v>
       </c>
       <c r="I14" s="1">
-        <v>-171.649000</v>
+        <v>-171.649</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>27212.148802</v>
       </c>
       <c r="L14" s="1">
-        <v>7.558930</v>
+        <v>7.5589300000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>941.506000</v>
+        <v>941.50599999999997</v>
       </c>
       <c r="N14" s="1">
-        <v>-121.272000</v>
+        <v>-121.27200000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>27222.709125</v>
+        <v>27222.709125000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>7.561864</v>
+        <v>7.5618639999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>948.407000</v>
+        <v>948.40700000000004</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.592000</v>
+        <v>-104.592</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>27232.928239</v>
+        <v>27232.928239000001</v>
       </c>
       <c r="V14" s="1">
-        <v>7.564702</v>
+        <v>7.5647019999999996</v>
       </c>
       <c r="W14" s="1">
-        <v>954.904000</v>
+        <v>954.904</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.211400</v>
+        <v>-89.211399999999998</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>27242.820444</v>
+        <v>27242.820444000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>7.567450</v>
+        <v>7.56745</v>
       </c>
       <c r="AB14" s="1">
-        <v>962.094000</v>
+        <v>962.09400000000005</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.074800</v>
+        <v>-77.074799999999996</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>27252.987405</v>
       </c>
       <c r="AF14" s="1">
-        <v>7.570274</v>
+        <v>7.5702740000000004</v>
       </c>
       <c r="AG14" s="1">
-        <v>966.745000</v>
+        <v>966.745</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.760700</v>
+        <v>-74.7607</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>27263.273935</v>
+        <v>27263.273935000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>7.573132</v>
+        <v>7.5731320000000002</v>
       </c>
       <c r="AL14" s="1">
-        <v>973.771000</v>
+        <v>973.77099999999996</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.225300</v>
+        <v>-79.225300000000004</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>27273.628914</v>
+        <v>27273.628914000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>7.576008</v>
+        <v>7.5760079999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>981.649000</v>
+        <v>981.649</v>
       </c>
       <c r="AR14" s="1">
-        <v>-90.699400</v>
+        <v>-90.699399999999997</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>27284.698658</v>
+        <v>27284.698658000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>7.579083</v>
+        <v>7.5790829999999998</v>
       </c>
       <c r="AV14" s="1">
-        <v>991.336000</v>
+        <v>991.33600000000001</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.251000</v>
+        <v>-108.251</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>27295.748997</v>
+        <v>27295.748996999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>7.582152</v>
+        <v>7.5821519999999998</v>
       </c>
       <c r="BA14" s="1">
-        <v>999.473000</v>
+        <v>999.47299999999996</v>
       </c>
       <c r="BB14" s="1">
-        <v>-123.808000</v>
+        <v>-123.80800000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>27306.788949</v>
+        <v>27306.788949000002</v>
       </c>
       <c r="BE14" s="1">
-        <v>7.585219</v>
+        <v>7.5852190000000004</v>
       </c>
       <c r="BF14" s="1">
-        <v>1037.570000</v>
+        <v>1037.57</v>
       </c>
       <c r="BG14" s="1">
-        <v>-195.854000</v>
+        <v>-195.85400000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>27318.000023</v>
+        <v>27318.000023000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>7.588333</v>
+        <v>7.5883330000000004</v>
       </c>
       <c r="BK14" s="1">
-        <v>1103.980000</v>
+        <v>1103.98</v>
       </c>
       <c r="BL14" s="1">
-        <v>-313.114000</v>
+        <v>-313.11399999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>27329.877719</v>
       </c>
       <c r="BO14" s="1">
-        <v>7.591633</v>
+        <v>7.5916329999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1212.480000</v>
+        <v>1212.48</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-497.419000</v>
+        <v>-497.41899999999998</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>27340.752537</v>
       </c>
       <c r="BT14" s="1">
-        <v>7.594653</v>
+        <v>7.5946530000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1334.430000</v>
+        <v>1334.43</v>
       </c>
       <c r="BV14" s="1">
-        <v>-698.886000</v>
+        <v>-698.88599999999997</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>27352.023130</v>
+        <v>27352.023130000001</v>
       </c>
       <c r="BY14" s="1">
-        <v>7.597784</v>
+        <v>7.5977839999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1470.860000</v>
+        <v>1470.86</v>
       </c>
       <c r="CA14" s="1">
-        <v>-913.984000</v>
+        <v>-913.98400000000004</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>27364.157722</v>
       </c>
       <c r="CD14" s="1">
-        <v>7.601155</v>
+        <v>7.6011550000000003</v>
       </c>
       <c r="CE14" s="1">
-        <v>1828.320000</v>
+        <v>1828.32</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1425.090000</v>
+        <v>-1425.09</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>27191.703214</v>
+        <v>27191.703214000001</v>
       </c>
       <c r="B15" s="1">
-        <v>7.553251</v>
+        <v>7.5532510000000004</v>
       </c>
       <c r="C15" s="1">
-        <v>899.843000</v>
+        <v>899.84299999999996</v>
       </c>
       <c r="D15" s="1">
-        <v>-202.434000</v>
+        <v>-202.434</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>27202.016032</v>
       </c>
       <c r="G15" s="1">
-        <v>7.556116</v>
+        <v>7.5561160000000003</v>
       </c>
       <c r="H15" s="1">
-        <v>918.144000</v>
+        <v>918.14400000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-171.173000</v>
+        <v>-171.173</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>27212.497490</v>
+        <v>27212.497490000002</v>
       </c>
       <c r="L15" s="1">
-        <v>7.559027</v>
+        <v>7.5590270000000004</v>
       </c>
       <c r="M15" s="1">
-        <v>941.484000</v>
+        <v>941.48400000000004</v>
       </c>
       <c r="N15" s="1">
-        <v>-121.213000</v>
+        <v>-121.21299999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>27223.059796</v>
+        <v>27223.059796000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>7.561961</v>
+        <v>7.5619610000000002</v>
       </c>
       <c r="R15" s="1">
-        <v>948.466000</v>
+        <v>948.46600000000001</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.618000</v>
+        <v>-104.61799999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>27233.279405</v>
+        <v>27233.279405000001</v>
       </c>
       <c r="V15" s="1">
-        <v>7.564800</v>
+        <v>7.5648</v>
       </c>
       <c r="W15" s="1">
-        <v>955.036000</v>
+        <v>955.03599999999994</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.188200</v>
+        <v>-89.188199999999995</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>27243.240026</v>
+        <v>27243.240025999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>7.567567</v>
+        <v>7.5675670000000004</v>
       </c>
       <c r="AB15" s="1">
-        <v>962.116000</v>
+        <v>962.11599999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.040800</v>
+        <v>-77.040800000000004</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>27253.404870</v>
+        <v>27253.404869999998</v>
       </c>
       <c r="AF15" s="1">
-        <v>7.570390</v>
+        <v>7.5703899999999997</v>
       </c>
       <c r="AG15" s="1">
-        <v>966.737000</v>
+        <v>966.73699999999997</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.767200</v>
+        <v>-74.767200000000003</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>27263.551695</v>
+        <v>27263.551694999998</v>
       </c>
       <c r="AK15" s="1">
-        <v>7.573209</v>
+        <v>7.5732090000000003</v>
       </c>
       <c r="AL15" s="1">
-        <v>973.777000</v>
+        <v>973.77700000000004</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.256100</v>
+        <v>-79.256100000000004</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>27273.990002</v>
+        <v>27273.990001999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>7.576108</v>
+        <v>7.5761079999999996</v>
       </c>
       <c r="AQ15" s="1">
-        <v>981.664000</v>
+        <v>981.66399999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-90.691300</v>
+        <v>-90.691299999999998</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>27285.066692</v>
       </c>
       <c r="AU15" s="1">
-        <v>7.579185</v>
+        <v>7.5791849999999998</v>
       </c>
       <c r="AV15" s="1">
-        <v>991.341000</v>
+        <v>991.34100000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.265000</v>
+        <v>-108.265</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>27296.107140</v>
+        <v>27296.10714</v>
       </c>
       <c r="AZ15" s="1">
-        <v>7.582252</v>
+        <v>7.5822520000000004</v>
       </c>
       <c r="BA15" s="1">
-        <v>999.462000</v>
+        <v>999.46199999999999</v>
       </c>
       <c r="BB15" s="1">
-        <v>-123.804000</v>
+        <v>-123.804</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>27307.512116</v>
+        <v>27307.512116000002</v>
       </c>
       <c r="BE15" s="1">
-        <v>7.585420</v>
+        <v>7.5854200000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1037.580000</v>
+        <v>1037.58</v>
       </c>
       <c r="BG15" s="1">
-        <v>-195.878000</v>
+        <v>-195.87799999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>27318.749478</v>
+        <v>27318.749478000002</v>
       </c>
       <c r="BJ15" s="1">
-        <v>7.588542</v>
+        <v>7.5885420000000003</v>
       </c>
       <c r="BK15" s="1">
-        <v>1103.960000</v>
+        <v>1103.96</v>
       </c>
       <c r="BL15" s="1">
-        <v>-313.080000</v>
+        <v>-313.08</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>27330.262119</v>
+        <v>27330.262118999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>7.591739</v>
+        <v>7.5917389999999996</v>
       </c>
       <c r="BP15" s="1">
-        <v>1212.480000</v>
+        <v>1212.48</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-497.441000</v>
+        <v>-497.44099999999997</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>27341.163211</v>
+        <v>27341.163210999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>7.594768</v>
+        <v>7.5947680000000002</v>
       </c>
       <c r="BU15" s="1">
-        <v>1334.510000</v>
+        <v>1334.51</v>
       </c>
       <c r="BV15" s="1">
-        <v>-698.905000</v>
+        <v>-698.90499999999997</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>27352.473002</v>
+        <v>27352.473001999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>7.597909</v>
+        <v>7.5979089999999996</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1471.070000</v>
+        <v>1471.07</v>
       </c>
       <c r="CA15" s="1">
-        <v>-914.071000</v>
+        <v>-914.07100000000003</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>27365.000462</v>
       </c>
       <c r="CD15" s="1">
-        <v>7.601389</v>
+        <v>7.6013890000000002</v>
       </c>
       <c r="CE15" s="1">
-        <v>1829.080000</v>
+        <v>1829.08</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1423.810000</v>
+        <v>-1423.81</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>27191.953695</v>
       </c>
       <c r="B16" s="1">
-        <v>7.553320</v>
+        <v>7.5533200000000003</v>
       </c>
       <c r="C16" s="1">
-        <v>899.918000</v>
+        <v>899.91800000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-202.576000</v>
+        <v>-202.57599999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>27202.364223</v>
       </c>
       <c r="G16" s="1">
-        <v>7.556212</v>
+        <v>7.5562120000000004</v>
       </c>
       <c r="H16" s="1">
-        <v>918.075000</v>
+        <v>918.07500000000005</v>
       </c>
       <c r="I16" s="1">
-        <v>-171.339000</v>
+        <v>-171.339</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>27212.843699</v>
+        <v>27212.843699000001</v>
       </c>
       <c r="L16" s="1">
-        <v>7.559123</v>
+        <v>7.5591229999999996</v>
       </c>
       <c r="M16" s="1">
-        <v>941.519000</v>
+        <v>941.51900000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-121.140000</v>
+        <v>-121.14</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>27223.407492</v>
+        <v>27223.407491999998</v>
       </c>
       <c r="Q16" s="1">
-        <v>7.562058</v>
+        <v>7.5620580000000004</v>
       </c>
       <c r="R16" s="1">
-        <v>948.369000</v>
+        <v>948.36900000000003</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.578000</v>
+        <v>-104.578</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>27233.702950</v>
+        <v>27233.702949999999</v>
       </c>
       <c r="V16" s="1">
-        <v>7.564917</v>
+        <v>7.5649170000000003</v>
       </c>
       <c r="W16" s="1">
-        <v>954.943000</v>
+        <v>954.94299999999998</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.085000</v>
+        <v>-89.084999999999994</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>27243.523737</v>
       </c>
       <c r="AA16" s="1">
-        <v>7.567645</v>
+        <v>7.5676449999999997</v>
       </c>
       <c r="AB16" s="1">
-        <v>962.056000</v>
+        <v>962.05600000000004</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.131800</v>
+        <v>-77.131799999999998</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>27253.680316</v>
+        <v>27253.680316000002</v>
       </c>
       <c r="AF16" s="1">
-        <v>7.570467</v>
+        <v>7.5704669999999998</v>
       </c>
       <c r="AG16" s="1">
-        <v>966.734000</v>
+        <v>966.73400000000004</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.749000</v>
+        <v>-74.748999999999995</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>27263.899424</v>
+        <v>27263.899423999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>7.573305</v>
+        <v>7.5733050000000004</v>
       </c>
       <c r="AL16" s="1">
-        <v>973.758000</v>
+        <v>973.75800000000004</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.238700</v>
+        <v>-79.238699999999994</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>27274.348114</v>
       </c>
       <c r="AP16" s="1">
-        <v>7.576208</v>
+        <v>7.5762080000000003</v>
       </c>
       <c r="AQ16" s="1">
-        <v>981.677000</v>
+        <v>981.67700000000002</v>
       </c>
       <c r="AR16" s="1">
-        <v>-90.709500</v>
+        <v>-90.709500000000006</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>27285.426785</v>
       </c>
       <c r="AU16" s="1">
-        <v>7.579285</v>
+        <v>7.5792849999999996</v>
       </c>
       <c r="AV16" s="1">
-        <v>991.351000</v>
+        <v>991.351</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.222000</v>
+        <v>-108.22199999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>27296.828292</v>
+        <v>27296.828291999998</v>
       </c>
       <c r="AZ16" s="1">
         <v>7.582452</v>
       </c>
       <c r="BA16" s="1">
-        <v>999.480000</v>
+        <v>999.48</v>
       </c>
       <c r="BB16" s="1">
-        <v>-123.816000</v>
+        <v>-123.816</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>27307.898998</v>
+        <v>27307.898998000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>7.585527</v>
+        <v>7.5855269999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1037.550000</v>
+        <v>1037.55</v>
       </c>
       <c r="BG16" s="1">
-        <v>-195.863000</v>
+        <v>-195.863</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>27319.125975</v>
+        <v>27319.125974999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>7.588646</v>
+        <v>7.5886459999999998</v>
       </c>
       <c r="BK16" s="1">
-        <v>1103.970000</v>
+        <v>1103.97</v>
       </c>
       <c r="BL16" s="1">
-        <v>-313.098000</v>
+        <v>-313.09800000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>27330.678296</v>
+        <v>27330.678295999998</v>
       </c>
       <c r="BO16" s="1">
-        <v>7.591855</v>
+        <v>7.5918549999999998</v>
       </c>
       <c r="BP16" s="1">
-        <v>1212.530000</v>
+        <v>1212.53</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-497.437000</v>
+        <v>-497.43700000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>27341.887352</v>
+        <v>27341.887352000002</v>
       </c>
       <c r="BT16" s="1">
-        <v>7.594969</v>
+        <v>7.5949689999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1334.650000</v>
+        <v>1334.65</v>
       </c>
       <c r="BV16" s="1">
-        <v>-698.899000</v>
+        <v>-698.899</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>27353.255658</v>
+        <v>27353.255657999998</v>
       </c>
       <c r="BY16" s="1">
-        <v>7.598127</v>
+        <v>7.5981269999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1470.950000</v>
+        <v>1470.95</v>
       </c>
       <c r="CA16" s="1">
-        <v>-913.997000</v>
+        <v>-913.99699999999996</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>27365.240030</v>
+        <v>27365.240030000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>7.601456</v>
+        <v>7.6014559999999998</v>
       </c>
       <c r="CE16" s="1">
-        <v>1827.710000</v>
+        <v>1827.71</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1422.880000</v>
+        <v>-1422.88</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>27192.295438</v>
+        <v>27192.295438000001</v>
       </c>
       <c r="B17" s="1">
-        <v>7.553415</v>
+        <v>7.5534150000000002</v>
       </c>
       <c r="C17" s="1">
-        <v>899.944000</v>
+        <v>899.94399999999996</v>
       </c>
       <c r="D17" s="1">
-        <v>-202.181000</v>
+        <v>-202.18100000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>27202.707455</v>
       </c>
       <c r="G17" s="1">
-        <v>7.556308</v>
+        <v>7.5563079999999996</v>
       </c>
       <c r="H17" s="1">
-        <v>918.316000</v>
+        <v>918.31600000000003</v>
       </c>
       <c r="I17" s="1">
-        <v>-171.039000</v>
+        <v>-171.03899999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>27213.270257</v>
       </c>
       <c r="L17" s="1">
-        <v>7.559242</v>
+        <v>7.5592420000000002</v>
       </c>
       <c r="M17" s="1">
-        <v>941.463000</v>
+        <v>941.46299999999997</v>
       </c>
       <c r="N17" s="1">
-        <v>-121.162000</v>
+        <v>-121.16200000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>27223.874728</v>
+        <v>27223.874727999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>7.562187</v>
+        <v>7.5621869999999998</v>
       </c>
       <c r="R17" s="1">
-        <v>948.361000</v>
+        <v>948.36099999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.620000</v>
+        <v>-104.62</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>27233.982695</v>
+        <v>27233.982694999999</v>
       </c>
       <c r="V17" s="1">
-        <v>7.564995</v>
+        <v>7.5649949999999997</v>
       </c>
       <c r="W17" s="1">
-        <v>954.994000</v>
+        <v>954.99400000000003</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.150900</v>
+        <v>-89.150899999999993</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>27243.868457</v>
       </c>
       <c r="AA17" s="1">
-        <v>7.567741</v>
+        <v>7.5677409999999998</v>
       </c>
       <c r="AB17" s="1">
-        <v>962.011000</v>
+        <v>962.01099999999997</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.126100</v>
+        <v>-77.126099999999994</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>27254.028013</v>
+        <v>27254.028012999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>7.570563</v>
+        <v>7.5705629999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>966.710000</v>
+        <v>966.71</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.773500</v>
+        <v>-74.773499999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>27264.253038</v>
+        <v>27264.253037999999</v>
       </c>
       <c r="AK17" s="1">
         <v>7.573404</v>
       </c>
       <c r="AL17" s="1">
-        <v>973.746000</v>
+        <v>973.74599999999998</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.246800</v>
+        <v>-79.246799999999993</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>27275.070288</v>
+        <v>27275.070287999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>7.576408</v>
+        <v>7.5764079999999998</v>
       </c>
       <c r="AQ17" s="1">
-        <v>981.655000</v>
+        <v>981.65499999999997</v>
       </c>
       <c r="AR17" s="1">
-        <v>-90.700900</v>
+        <v>-90.700900000000004</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>27286.156865</v>
+        <v>27286.156865000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>7.579488</v>
+        <v>7.5794879999999996</v>
       </c>
       <c r="AV17" s="1">
-        <v>991.370000</v>
+        <v>991.37</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.213000</v>
+        <v>-108.21299999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>27297.204756</v>
+        <v>27297.204755999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>7.582557</v>
+        <v>7.5825570000000004</v>
       </c>
       <c r="BA17" s="1">
-        <v>999.469000</v>
+        <v>999.46900000000005</v>
       </c>
       <c r="BB17" s="1">
-        <v>-123.821000</v>
+        <v>-123.821</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>27308.283235</v>
+        <v>27308.283234999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>7.585634</v>
+        <v>7.5856339999999998</v>
       </c>
       <c r="BF17" s="1">
-        <v>1037.560000</v>
+        <v>1037.56</v>
       </c>
       <c r="BG17" s="1">
-        <v>-195.881000</v>
+        <v>-195.881</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>27319.501909</v>
+        <v>27319.501908999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>7.588751</v>
+        <v>7.5887510000000002</v>
       </c>
       <c r="BK17" s="1">
-        <v>1103.970000</v>
+        <v>1103.97</v>
       </c>
       <c r="BL17" s="1">
-        <v>-313.093000</v>
+        <v>-313.09300000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>27331.393493</v>
       </c>
       <c r="BO17" s="1">
-        <v>7.592054</v>
+        <v>7.5920540000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1212.510000</v>
+        <v>1212.51</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-497.420000</v>
+        <v>-497.42</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>27342.018791</v>
+        <v>27342.018790999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>7.595005</v>
+        <v>7.5950049999999996</v>
       </c>
       <c r="BU17" s="1">
-        <v>1334.780000</v>
+        <v>1334.78</v>
       </c>
       <c r="BV17" s="1">
-        <v>-698.938000</v>
+        <v>-698.93799999999999</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>27353.376680</v>
+        <v>27353.376680000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>7.598160</v>
+        <v>7.59816</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1470.960000</v>
+        <v>1470.96</v>
       </c>
       <c r="CA17" s="1">
-        <v>-914.076000</v>
+        <v>-914.07600000000002</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>27365.774184</v>
+        <v>27365.774184000002</v>
       </c>
       <c r="CD17" s="1">
         <v>7.601604</v>
       </c>
       <c r="CE17" s="1">
-        <v>1827.830000</v>
+        <v>1827.83</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1425.060000</v>
+        <v>-1425.06</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>27192.716076</v>
+        <v>27192.716076000001</v>
       </c>
       <c r="B18" s="1">
-        <v>7.553532</v>
+        <v>7.5535319999999997</v>
       </c>
       <c r="C18" s="1">
-        <v>899.993000</v>
+        <v>899.99300000000005</v>
       </c>
       <c r="D18" s="1">
-        <v>-202.436000</v>
+        <v>-202.43600000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>27203.143440</v>
+        <v>27203.14344</v>
       </c>
       <c r="G18" s="1">
-        <v>7.556429</v>
+        <v>7.5564289999999996</v>
       </c>
       <c r="H18" s="1">
-        <v>917.545000</v>
+        <v>917.54499999999996</v>
       </c>
       <c r="I18" s="1">
-        <v>-171.083000</v>
+        <v>-171.083</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>27213.549537</v>
+        <v>27213.549536999999</v>
       </c>
       <c r="L18" s="1">
-        <v>7.559319</v>
+        <v>7.5593190000000003</v>
       </c>
       <c r="M18" s="1">
-        <v>941.491000</v>
+        <v>941.49099999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-121.390000</v>
+        <v>-121.39</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>27224.113299</v>
+        <v>27224.113299000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>7.562254</v>
+        <v>7.5622540000000003</v>
       </c>
       <c r="R18" s="1">
-        <v>948.372000</v>
+        <v>948.37199999999996</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.603000</v>
+        <v>-104.60299999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>27234.327909</v>
       </c>
       <c r="V18" s="1">
-        <v>7.565091</v>
+        <v>7.5650909999999998</v>
       </c>
       <c r="W18" s="1">
-        <v>955.027000</v>
+        <v>955.02700000000004</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.158400</v>
+        <v>-89.1584</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>27244.222436</v>
       </c>
       <c r="AA18" s="1">
-        <v>7.567840</v>
+        <v>7.5678400000000003</v>
       </c>
       <c r="AB18" s="1">
-        <v>962.114000</v>
+        <v>962.11400000000003</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.181100</v>
+        <v>-77.181100000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>27254.367275</v>
+        <v>27254.367275000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>7.570658</v>
+        <v>7.5706579999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>966.709000</v>
+        <v>966.70899999999995</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.736900</v>
+        <v>-74.736900000000006</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>27264.946974</v>
+        <v>27264.946973999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>7.573596</v>
+        <v>7.5735960000000002</v>
       </c>
       <c r="AL18" s="1">
-        <v>973.743000</v>
+        <v>973.74300000000005</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.237200</v>
+        <v>-79.237200000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>27275.457698</v>
+        <v>27275.457697999998</v>
       </c>
       <c r="AP18" s="1">
-        <v>7.576516</v>
+        <v>7.5765159999999998</v>
       </c>
       <c r="AQ18" s="1">
-        <v>981.675000</v>
+        <v>981.67499999999995</v>
       </c>
       <c r="AR18" s="1">
-        <v>-90.701900</v>
+        <v>-90.701899999999995</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>27286.548209</v>
       </c>
       <c r="AU18" s="1">
-        <v>7.579597</v>
+        <v>7.5795969999999997</v>
       </c>
       <c r="AV18" s="1">
-        <v>991.337000</v>
+        <v>991.33699999999999</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.242000</v>
+        <v>-108.242</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>27297.587170</v>
+        <v>27297.587169999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>7.582663</v>
+        <v>7.5826630000000002</v>
       </c>
       <c r="BA18" s="1">
-        <v>999.464000</v>
+        <v>999.46400000000006</v>
       </c>
       <c r="BB18" s="1">
-        <v>-123.826000</v>
+        <v>-123.82599999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>27308.969363</v>
       </c>
       <c r="BE18" s="1">
-        <v>7.585825</v>
+        <v>7.5858249999999998</v>
       </c>
       <c r="BF18" s="1">
-        <v>1037.590000</v>
+        <v>1037.5899999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-195.881000</v>
+        <v>-195.881</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>27320.184404</v>
       </c>
       <c r="BJ18" s="1">
-        <v>7.588940</v>
+        <v>7.58894</v>
       </c>
       <c r="BK18" s="1">
-        <v>1103.980000</v>
+        <v>1103.98</v>
       </c>
       <c r="BL18" s="1">
-        <v>-313.109000</v>
+        <v>-313.10899999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>27331.515013</v>
       </c>
       <c r="BO18" s="1">
-        <v>7.592088</v>
+        <v>7.5920880000000004</v>
       </c>
       <c r="BP18" s="1">
-        <v>1212.480000</v>
+        <v>1212.48</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-497.398000</v>
+        <v>-497.39800000000002</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>27342.446841</v>
+        <v>27342.446841000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>7.595124</v>
+        <v>7.5951240000000002</v>
       </c>
       <c r="BU18" s="1">
-        <v>1334.780000</v>
+        <v>1334.78</v>
       </c>
       <c r="BV18" s="1">
-        <v>-699.048000</v>
+        <v>-699.048</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>27353.817128</v>
+        <v>27353.817127999999</v>
       </c>
       <c r="BY18" s="1">
-        <v>7.598283</v>
+        <v>7.5982830000000003</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1470.830000</v>
+        <v>1470.83</v>
       </c>
       <c r="CA18" s="1">
-        <v>-913.905000</v>
+        <v>-913.90499999999997</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>27366.313336</v>
+        <v>27366.313335999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>7.601754</v>
+        <v>7.6017539999999997</v>
       </c>
       <c r="CE18" s="1">
-        <v>1828.530000</v>
+        <v>1828.53</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1423.700000</v>
+        <v>-1423.7</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>27192.993549</v>
+        <v>27192.993548999999</v>
       </c>
       <c r="B19" s="1">
-        <v>7.553609</v>
+        <v>7.5536089999999998</v>
       </c>
       <c r="C19" s="1">
-        <v>899.838000</v>
+        <v>899.83799999999997</v>
       </c>
       <c r="D19" s="1">
-        <v>-202.533000</v>
+        <v>-202.53299999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>27203.399375</v>
+        <v>27203.399375000001</v>
       </c>
       <c r="G19" s="1">
-        <v>7.556500</v>
+        <v>7.5564999999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>918.017000</v>
+        <v>918.01700000000005</v>
       </c>
       <c r="I19" s="1">
-        <v>-171.064000</v>
+        <v>-171.06399999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>27213.892738</v>
+        <v>27213.892737999999</v>
       </c>
       <c r="L19" s="1">
-        <v>7.559415</v>
+        <v>7.5594150000000004</v>
       </c>
       <c r="M19" s="1">
-        <v>941.511000</v>
+        <v>941.51099999999997</v>
       </c>
       <c r="N19" s="1">
-        <v>-121.040000</v>
+        <v>-121.04</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>27224.460500</v>
+        <v>27224.460500000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>7.562350</v>
+        <v>7.5623500000000003</v>
       </c>
       <c r="R19" s="1">
-        <v>948.378000</v>
+        <v>948.37800000000004</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.582000</v>
+        <v>-104.58199999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>27234.668661</v>
       </c>
       <c r="V19" s="1">
-        <v>7.565186</v>
+        <v>7.5651859999999997</v>
       </c>
       <c r="W19" s="1">
-        <v>955.007000</v>
+        <v>955.00699999999995</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.148500</v>
+        <v>-89.148499999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>27244.913527</v>
+        <v>27244.913527000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>7.568032</v>
+        <v>7.5680319999999996</v>
       </c>
       <c r="AB19" s="1">
-        <v>962.117000</v>
+        <v>962.11699999999996</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.167900</v>
+        <v>-77.167900000000003</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>27255.056714</v>
+        <v>27255.056713999998</v>
       </c>
       <c r="AF19" s="1">
-        <v>7.570849</v>
+        <v>7.5708489999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>966.750000</v>
+        <v>966.75</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.743200</v>
+        <v>-74.743200000000002</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>27265.293180</v>
+        <v>27265.293180000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>7.573693</v>
+        <v>7.5736929999999996</v>
       </c>
       <c r="AL19" s="1">
-        <v>973.744000</v>
+        <v>973.74400000000003</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.267200</v>
+        <v>-79.267200000000003</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>27275.820747</v>
+        <v>27275.820747000002</v>
       </c>
       <c r="AP19" s="1">
-        <v>7.576617</v>
+        <v>7.5766169999999997</v>
       </c>
       <c r="AQ19" s="1">
-        <v>981.670000</v>
+        <v>981.67</v>
       </c>
       <c r="AR19" s="1">
-        <v>-90.709400</v>
+        <v>-90.709400000000002</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>27286.900368</v>
+        <v>27286.900367999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>7.579695</v>
+        <v>7.5796950000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>991.366000</v>
+        <v>991.36599999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.246000</v>
+        <v>-108.246</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>27298.257761</v>
+        <v>27298.257761000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>7.582849</v>
+        <v>7.5828490000000004</v>
       </c>
       <c r="BA19" s="1">
-        <v>999.484000</v>
+        <v>999.48400000000004</v>
       </c>
       <c r="BB19" s="1">
-        <v>-123.809000</v>
+        <v>-123.809</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>27309.366510</v>
+        <v>27309.36651</v>
       </c>
       <c r="BE19" s="1">
-        <v>7.585935</v>
+        <v>7.5859350000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1037.580000</v>
+        <v>1037.58</v>
       </c>
       <c r="BG19" s="1">
-        <v>-195.871000</v>
+        <v>-195.87100000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>27320.628336</v>
+        <v>27320.628336000002</v>
       </c>
       <c r="BJ19" s="1">
-        <v>7.589063</v>
+        <v>7.5890630000000003</v>
       </c>
       <c r="BK19" s="1">
-        <v>1103.950000</v>
+        <v>1103.95</v>
       </c>
       <c r="BL19" s="1">
-        <v>-313.061000</v>
+        <v>-313.06099999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>27331.924241</v>
+        <v>27331.924241000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>7.592201</v>
+        <v>7.5922010000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1212.510000</v>
+        <v>1212.51</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-497.415000</v>
+        <v>-497.41500000000002</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>27342.884839</v>
+        <v>27342.884838999998</v>
       </c>
       <c r="BT19" s="1">
-        <v>7.595246</v>
+        <v>7.5952460000000004</v>
       </c>
       <c r="BU19" s="1">
-        <v>1334.840000</v>
+        <v>1334.84</v>
       </c>
       <c r="BV19" s="1">
-        <v>-699.069000</v>
+        <v>-699.06899999999996</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>27354.273447</v>
       </c>
       <c r="BY19" s="1">
-        <v>7.598409</v>
+        <v>7.5984090000000002</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1471.000000</v>
+        <v>1471</v>
       </c>
       <c r="CA19" s="1">
-        <v>-913.994000</v>
+        <v>-913.99400000000003</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>27366.864422</v>
+        <v>27366.864421999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>7.601907</v>
+        <v>7.6019069999999997</v>
       </c>
       <c r="CE19" s="1">
-        <v>1827.280000</v>
+        <v>1827.28</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1424.050000</v>
+        <v>-1424.05</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>27193.335581</v>
+        <v>27193.335580999999</v>
       </c>
       <c r="B20" s="1">
-        <v>7.553704</v>
+        <v>7.5537039999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>899.994000</v>
+        <v>899.99400000000003</v>
       </c>
       <c r="D20" s="1">
-        <v>-202.179000</v>
+        <v>-202.179</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>27203.747568</v>
+        <v>27203.747567999999</v>
       </c>
       <c r="G20" s="1">
         <v>7.556597</v>
       </c>
       <c r="H20" s="1">
-        <v>918.174000</v>
+        <v>918.17399999999998</v>
       </c>
       <c r="I20" s="1">
-        <v>-171.303000</v>
+        <v>-171.303</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>27214.238944</v>
+        <v>27214.238944000001</v>
       </c>
       <c r="L20" s="1">
-        <v>7.559511</v>
+        <v>7.5595109999999996</v>
       </c>
       <c r="M20" s="1">
-        <v>941.465000</v>
+        <v>941.46500000000003</v>
       </c>
       <c r="N20" s="1">
-        <v>-121.310000</v>
+        <v>-121.31</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>27225.155890</v>
+        <v>27225.155890000002</v>
       </c>
       <c r="Q20" s="1">
-        <v>7.562543</v>
+        <v>7.5625429999999998</v>
       </c>
       <c r="R20" s="1">
-        <v>948.384000</v>
+        <v>948.38400000000001</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.582000</v>
+        <v>-104.58199999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>27235.358628</v>
+        <v>27235.358628000002</v>
       </c>
       <c r="V20" s="1">
-        <v>7.565377</v>
+        <v>7.5653769999999998</v>
       </c>
       <c r="W20" s="1">
-        <v>954.928000</v>
+        <v>954.928</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.120000</v>
+        <v>-89.12</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>27245.265223</v>
+        <v>27245.265222999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>7.568129</v>
+        <v>7.5681289999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>962.131000</v>
+        <v>962.13099999999997</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.136300</v>
+        <v>-77.136300000000006</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>27255.400442</v>
+        <v>27255.400441999998</v>
       </c>
       <c r="AF20" s="1">
         <v>7.570945</v>
       </c>
       <c r="AG20" s="1">
-        <v>966.733000</v>
+        <v>966.73299999999995</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.742300</v>
+        <v>-74.7423</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>27265.644316</v>
+        <v>27265.644316000002</v>
       </c>
       <c r="AK20" s="1">
-        <v>7.573790</v>
+        <v>7.5737899999999998</v>
       </c>
       <c r="AL20" s="1">
-        <v>973.721000</v>
+        <v>973.721</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.240300</v>
+        <v>-79.240300000000005</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>27276.489840</v>
+        <v>27276.489839999998</v>
       </c>
       <c r="AP20" s="1">
         <v>7.576803</v>
       </c>
       <c r="AQ20" s="1">
-        <v>981.691000</v>
+        <v>981.69100000000003</v>
       </c>
       <c r="AR20" s="1">
-        <v>-90.721600</v>
+        <v>-90.721599999999995</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>27287.585068</v>
@@ -5242,542 +5658,542 @@
         <v>7.579885</v>
       </c>
       <c r="AV20" s="1">
-        <v>991.372000</v>
+        <v>991.37199999999996</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.245000</v>
+        <v>-108.245</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>27298.665473</v>
+        <v>27298.665473000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>7.582963</v>
+        <v>7.5829630000000003</v>
       </c>
       <c r="BA20" s="1">
-        <v>999.466000</v>
+        <v>999.46600000000001</v>
       </c>
       <c r="BB20" s="1">
-        <v>-123.812000</v>
+        <v>-123.812</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>27309.756514</v>
+        <v>27309.756514000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>7.586043</v>
+        <v>7.5860430000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1037.590000</v>
+        <v>1037.5899999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-195.874000</v>
+        <v>-195.874</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>27321.004787</v>
+        <v>27321.004787000002</v>
       </c>
       <c r="BJ20" s="1">
-        <v>7.589168</v>
+        <v>7.5891679999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1103.980000</v>
+        <v>1103.98</v>
       </c>
       <c r="BL20" s="1">
-        <v>-313.113000</v>
+        <v>-313.113</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>27332.320020</v>
+        <v>27332.320019999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>7.592311</v>
+        <v>7.5923109999999996</v>
       </c>
       <c r="BP20" s="1">
-        <v>1212.490000</v>
+        <v>1212.49</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-497.442000</v>
+        <v>-497.44200000000001</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>27343.298999</v>
+        <v>27343.298998999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>7.595361</v>
+        <v>7.5953609999999996</v>
       </c>
       <c r="BU20" s="1">
-        <v>1334.900000</v>
+        <v>1334.9</v>
       </c>
       <c r="BV20" s="1">
-        <v>-699.171000</v>
+        <v>-699.17100000000005</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>27354.736712</v>
+        <v>27354.736712000002</v>
       </c>
       <c r="BY20" s="1">
-        <v>7.598538</v>
+        <v>7.5985379999999996</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1470.980000</v>
+        <v>1470.98</v>
       </c>
       <c r="CA20" s="1">
-        <v>-913.960000</v>
+        <v>-913.96</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>27367.393157</v>
+        <v>27367.393156999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>7.602054</v>
+        <v>7.6020539999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1828.440000</v>
+        <v>1828.44</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1424.330000</v>
+        <v>-1424.33</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>27193.677017</v>
+        <v>27193.677017000002</v>
       </c>
       <c r="B21" s="1">
-        <v>7.553799</v>
+        <v>7.5537989999999997</v>
       </c>
       <c r="C21" s="1">
-        <v>899.790000</v>
+        <v>899.79</v>
       </c>
       <c r="D21" s="1">
-        <v>-202.410000</v>
+        <v>-202.41</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>27204.093277</v>
       </c>
       <c r="G21" s="1">
-        <v>7.556693</v>
+        <v>7.5566930000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>917.970000</v>
+        <v>917.97</v>
       </c>
       <c r="I21" s="1">
-        <v>-171.074000</v>
+        <v>-171.07400000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>27214.933839</v>
+        <v>27214.933839000001</v>
       </c>
       <c r="L21" s="1">
         <v>7.559704</v>
       </c>
       <c r="M21" s="1">
-        <v>941.487000</v>
+        <v>941.48699999999997</v>
       </c>
       <c r="N21" s="1">
-        <v>-121.146000</v>
+        <v>-121.146</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>27225.506065</v>
+        <v>27225.506065000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>7.562641</v>
+        <v>7.5626410000000002</v>
       </c>
       <c r="R21" s="1">
-        <v>948.423000</v>
+        <v>948.423</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.651000</v>
+        <v>-104.651</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>27235.701828</v>
+        <v>27235.701828000001</v>
       </c>
       <c r="V21" s="1">
-        <v>7.565473</v>
+        <v>7.5654729999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>955.057000</v>
+        <v>955.05700000000002</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.184400</v>
+        <v>-89.184399999999997</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>27245.612887</v>
+        <v>27245.612886999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>7.568226</v>
+        <v>7.5682260000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>962.096000</v>
+        <v>962.096</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.170600</v>
+        <v>-77.170599999999993</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>27255.748671</v>
+        <v>27255.748671000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>7.571041</v>
+        <v>7.5710410000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>966.723000</v>
+        <v>966.72299999999996</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.727300</v>
+        <v>-74.7273</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>27266.302011</v>
       </c>
       <c r="AK21" s="1">
-        <v>7.573973</v>
+        <v>7.5739729999999996</v>
       </c>
       <c r="AL21" s="1">
-        <v>973.750000</v>
+        <v>973.75</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.233300</v>
+        <v>-79.2333</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>27276.924333</v>
+        <v>27276.924332999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>7.576923</v>
+        <v>7.5769229999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>981.687000</v>
+        <v>981.68700000000001</v>
       </c>
       <c r="AR21" s="1">
-        <v>-90.708900</v>
+        <v>-90.7089</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>27288.005456</v>
+        <v>27288.005455999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>7.580002</v>
+        <v>7.5800020000000004</v>
       </c>
       <c r="AV21" s="1">
-        <v>991.360000</v>
+        <v>991.36</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.253000</v>
+        <v>-108.253</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>27299.038962</v>
+        <v>27299.038961999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>7.583066</v>
+        <v>7.5830659999999996</v>
       </c>
       <c r="BA21" s="1">
-        <v>999.469000</v>
+        <v>999.46900000000005</v>
       </c>
       <c r="BB21" s="1">
-        <v>-123.812000</v>
+        <v>-123.812</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>27310.117137</v>
+        <v>27310.117137000001</v>
       </c>
       <c r="BE21" s="1">
         <v>7.586144</v>
       </c>
       <c r="BF21" s="1">
-        <v>1037.580000</v>
+        <v>1037.58</v>
       </c>
       <c r="BG21" s="1">
-        <v>-195.851000</v>
+        <v>-195.851</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>27321.377283</v>
+        <v>27321.377283000002</v>
       </c>
       <c r="BJ21" s="1">
-        <v>7.589271</v>
+        <v>7.5892710000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1103.980000</v>
+        <v>1103.98</v>
       </c>
       <c r="BL21" s="1">
-        <v>-313.085000</v>
+        <v>-313.08499999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>27332.742613</v>
+        <v>27332.742612999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>7.592429</v>
+        <v>7.5924290000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1212.510000</v>
+        <v>1212.51</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-497.454000</v>
+        <v>-497.45400000000001</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>27343.727509</v>
       </c>
       <c r="BT21" s="1">
-        <v>7.595480</v>
+        <v>7.5954800000000002</v>
       </c>
       <c r="BU21" s="1">
-        <v>1334.930000</v>
+        <v>1334.93</v>
       </c>
       <c r="BV21" s="1">
-        <v>-699.219000</v>
+        <v>-699.21900000000005</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>27355.139958</v>
       </c>
       <c r="BY21" s="1">
-        <v>7.598650</v>
+        <v>7.5986500000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1470.940000</v>
+        <v>1470.94</v>
       </c>
       <c r="CA21" s="1">
-        <v>-913.972000</v>
+        <v>-913.97199999999998</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>27367.932810</v>
+        <v>27367.932809999998</v>
       </c>
       <c r="CD21" s="1">
-        <v>7.602204</v>
+        <v>7.6022040000000004</v>
       </c>
       <c r="CE21" s="1">
-        <v>1827.640000</v>
+        <v>1827.64</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1423.170000</v>
+        <v>-1423.17</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>27194.360815</v>
       </c>
       <c r="B22" s="1">
-        <v>7.553989</v>
+        <v>7.5539889999999996</v>
       </c>
       <c r="C22" s="1">
-        <v>899.868000</v>
+        <v>899.86800000000005</v>
       </c>
       <c r="D22" s="1">
-        <v>-202.411000</v>
+        <v>-202.411</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>27204.780734</v>
       </c>
       <c r="G22" s="1">
-        <v>7.556884</v>
+        <v>7.5568840000000002</v>
       </c>
       <c r="H22" s="1">
-        <v>918.050000</v>
+        <v>918.05</v>
       </c>
       <c r="I22" s="1">
-        <v>-171.157000</v>
+        <v>-171.15700000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>27215.283552</v>
+        <v>27215.283552000001</v>
       </c>
       <c r="L22" s="1">
-        <v>7.559801</v>
+        <v>7.5598010000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>941.478000</v>
+        <v>941.47799999999995</v>
       </c>
       <c r="N22" s="1">
-        <v>-121.357000</v>
+        <v>-121.357</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>27225.856739</v>
+        <v>27225.856738999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>7.562738</v>
+        <v>7.5627380000000004</v>
       </c>
       <c r="R22" s="1">
-        <v>948.430000</v>
+        <v>948.43</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.671000</v>
+        <v>-104.67100000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>27236.045059</v>
       </c>
       <c r="V22" s="1">
-        <v>7.565568</v>
+        <v>7.5655679999999998</v>
       </c>
       <c r="W22" s="1">
-        <v>955.064000</v>
+        <v>955.06399999999996</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.153400</v>
+        <v>-89.153400000000005</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>27246.280005</v>
+        <v>27246.280005000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>7.568411</v>
+        <v>7.5684110000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>962.125000</v>
+        <v>962.125</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.208100</v>
+        <v>-77.208100000000002</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>27256.457417</v>
+        <v>27256.457417000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>7.571238</v>
+        <v>7.5712380000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>966.736000</v>
+        <v>966.73599999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.773200</v>
+        <v>-74.773200000000003</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>27266.690380</v>
+        <v>27266.69038</v>
       </c>
       <c r="AK22" s="1">
-        <v>7.574081</v>
+        <v>7.5740809999999996</v>
       </c>
       <c r="AL22" s="1">
-        <v>973.731000</v>
+        <v>973.73099999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.229100</v>
+        <v>-79.229100000000003</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>27277.287932</v>
+        <v>27277.287931999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>7.577024</v>
+        <v>7.5770239999999998</v>
       </c>
       <c r="AQ22" s="1">
-        <v>981.672000</v>
+        <v>981.67200000000003</v>
       </c>
       <c r="AR22" s="1">
-        <v>-90.722700</v>
+        <v>-90.722700000000003</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>27288.372991</v>
       </c>
       <c r="AU22" s="1">
-        <v>7.580104</v>
+        <v>7.5801040000000004</v>
       </c>
       <c r="AV22" s="1">
-        <v>991.350000</v>
+        <v>991.35</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.239000</v>
+        <v>-108.239</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>27299.419888</v>
       </c>
       <c r="AZ22" s="1">
-        <v>7.583172</v>
+        <v>7.5831720000000002</v>
       </c>
       <c r="BA22" s="1">
-        <v>999.465000</v>
+        <v>999.46500000000003</v>
       </c>
       <c r="BB22" s="1">
-        <v>-123.815000</v>
+        <v>-123.815</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>27310.552592</v>
@@ -5786,422 +6202,422 @@
         <v>7.586265</v>
       </c>
       <c r="BF22" s="1">
-        <v>1037.570000</v>
+        <v>1037.57</v>
       </c>
       <c r="BG22" s="1">
-        <v>-195.872000</v>
+        <v>-195.87200000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>27321.847996</v>
       </c>
       <c r="BJ22" s="1">
-        <v>7.589402</v>
+        <v>7.5894019999999998</v>
       </c>
       <c r="BK22" s="1">
-        <v>1103.980000</v>
+        <v>1103.98</v>
       </c>
       <c r="BL22" s="1">
-        <v>-313.071000</v>
+        <v>-313.07100000000003</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>27333.138947</v>
+        <v>27333.138946999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>7.592539</v>
+        <v>7.5925390000000004</v>
       </c>
       <c r="BP22" s="1">
-        <v>1212.510000</v>
+        <v>1212.51</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-497.464000</v>
+        <v>-497.464</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>27344.156085</v>
+        <v>27344.156084999999</v>
       </c>
       <c r="BT22" s="1">
         <v>7.595599</v>
       </c>
       <c r="BU22" s="1">
-        <v>1334.900000</v>
+        <v>1334.9</v>
       </c>
       <c r="BV22" s="1">
-        <v>-699.383000</v>
+        <v>-699.38300000000004</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>27355.584870</v>
+        <v>27355.584869999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>7.598774</v>
+        <v>7.5987739999999997</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1470.930000</v>
+        <v>1470.93</v>
       </c>
       <c r="CA22" s="1">
-        <v>-914.016000</v>
+        <v>-914.01599999999996</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>27368.473441</v>
+        <v>27368.473440999998</v>
       </c>
       <c r="CD22" s="1">
-        <v>7.602354</v>
+        <v>7.6023540000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1827.900000</v>
+        <v>1827.9</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1425.040000</v>
+        <v>-1425.04</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>27194.702523</v>
       </c>
       <c r="B23" s="1">
-        <v>7.554084</v>
+        <v>7.5540839999999996</v>
       </c>
       <c r="C23" s="1">
-        <v>899.843000</v>
+        <v>899.84299999999996</v>
       </c>
       <c r="D23" s="1">
-        <v>-202.511000</v>
+        <v>-202.511</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>27205.125803</v>
+        <v>27205.125802999999</v>
       </c>
       <c r="G23" s="1">
-        <v>7.556979</v>
+        <v>7.5569790000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>917.742000</v>
+        <v>917.74199999999996</v>
       </c>
       <c r="I23" s="1">
-        <v>-170.932000</v>
+        <v>-170.93199999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>27215.630257</v>
+        <v>27215.630257000001</v>
       </c>
       <c r="L23" s="1">
-        <v>7.559897</v>
+        <v>7.5598970000000003</v>
       </c>
       <c r="M23" s="1">
-        <v>941.307000</v>
+        <v>941.30700000000002</v>
       </c>
       <c r="N23" s="1">
-        <v>-121.517000</v>
+        <v>-121.517</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>27226.522863</v>
+        <v>27226.522862999998</v>
       </c>
       <c r="Q23" s="1">
-        <v>7.562923</v>
+        <v>7.5629229999999996</v>
       </c>
       <c r="R23" s="1">
-        <v>948.353000</v>
+        <v>948.35299999999995</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.614000</v>
+        <v>-104.614</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>27236.701762</v>
+        <v>27236.701762000001</v>
       </c>
       <c r="V23" s="1">
-        <v>7.565750</v>
+        <v>7.5657500000000004</v>
       </c>
       <c r="W23" s="1">
-        <v>955.021000</v>
+        <v>955.02099999999996</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.169300</v>
+        <v>-89.169300000000007</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>27246.658949</v>
+        <v>27246.658949000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>7.568516</v>
+        <v>7.5685159999999998</v>
       </c>
       <c r="AB23" s="1">
-        <v>962.075000</v>
+        <v>962.07500000000005</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.207700</v>
+        <v>-77.207700000000003</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>27256.793208</v>
+        <v>27256.793207999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>7.571331</v>
+        <v>7.5713309999999998</v>
       </c>
       <c r="AG23" s="1">
-        <v>966.702000</v>
+        <v>966.702</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.723600</v>
+        <v>-74.723600000000005</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>27267.038570</v>
+        <v>27267.038570000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>7.574177</v>
+        <v>7.5741769999999997</v>
       </c>
       <c r="AL23" s="1">
-        <v>973.737000</v>
+        <v>973.73699999999997</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.269800</v>
+        <v>-79.269800000000004</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>27277.648988</v>
+        <v>27277.648988000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>7.577125</v>
+        <v>7.5771249999999997</v>
       </c>
       <c r="AQ23" s="1">
-        <v>981.662000</v>
+        <v>981.66200000000003</v>
       </c>
       <c r="AR23" s="1">
-        <v>-90.717900</v>
+        <v>-90.7179</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>27288.737587</v>
       </c>
       <c r="AU23" s="1">
-        <v>7.580205</v>
+        <v>7.5802050000000003</v>
       </c>
       <c r="AV23" s="1">
-        <v>991.369000</v>
+        <v>991.36900000000003</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.244000</v>
+        <v>-108.244</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>27299.843503</v>
       </c>
       <c r="AZ23" s="1">
-        <v>7.583290</v>
+        <v>7.5832899999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>999.474000</v>
+        <v>999.47400000000005</v>
       </c>
       <c r="BB23" s="1">
-        <v>-123.806000</v>
+        <v>-123.806</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>27310.838784</v>
       </c>
       <c r="BE23" s="1">
-        <v>7.586344</v>
+        <v>7.5863440000000004</v>
       </c>
       <c r="BF23" s="1">
-        <v>1037.590000</v>
+        <v>1037.5899999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-195.885000</v>
+        <v>-195.88499999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>27322.159505</v>
       </c>
       <c r="BJ23" s="1">
-        <v>7.589489</v>
+        <v>7.5894890000000004</v>
       </c>
       <c r="BK23" s="1">
-        <v>1103.990000</v>
+        <v>1103.99</v>
       </c>
       <c r="BL23" s="1">
-        <v>-313.099000</v>
+        <v>-313.09899999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>27333.554562</v>
+        <v>27333.554562000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>7.592654</v>
+        <v>7.5926539999999996</v>
       </c>
       <c r="BP23" s="1">
-        <v>1212.480000</v>
+        <v>1212.48</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-497.417000</v>
+        <v>-497.41699999999997</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>27344.567236</v>
+        <v>27344.567235999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>7.595713</v>
+        <v>7.5957129999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1334.880000</v>
+        <v>1334.88</v>
       </c>
       <c r="BV23" s="1">
-        <v>-699.444000</v>
+        <v>-699.44399999999996</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>27356.016916</v>
       </c>
       <c r="BY23" s="1">
-        <v>7.598894</v>
+        <v>7.5988939999999996</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1470.980000</v>
+        <v>1470.98</v>
       </c>
       <c r="CA23" s="1">
-        <v>-914.070000</v>
+        <v>-914.07</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>27369.009093</v>
+        <v>27369.009093000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>7.602503</v>
+        <v>7.6025029999999996</v>
       </c>
       <c r="CE23" s="1">
-        <v>1828.710000</v>
+        <v>1828.71</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1423.670000</v>
+        <v>-1423.67</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>27195.045753</v>
+        <v>27195.045752999999</v>
       </c>
       <c r="B24" s="1">
-        <v>7.554179</v>
+        <v>7.5541790000000004</v>
       </c>
       <c r="C24" s="1">
-        <v>899.800000</v>
+        <v>899.8</v>
       </c>
       <c r="D24" s="1">
-        <v>-202.511000</v>
+        <v>-202.511</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>27205.469714</v>
+        <v>27205.469713999999</v>
       </c>
       <c r="G24" s="1">
-        <v>7.557075</v>
+        <v>7.5570750000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>918.083000</v>
+        <v>918.08299999999997</v>
       </c>
       <c r="I24" s="1">
-        <v>-171.112000</v>
+        <v>-171.11199999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>27216.291885</v>
+        <v>27216.291884999999</v>
       </c>
       <c r="L24" s="1">
-        <v>7.560081</v>
+        <v>7.5600810000000003</v>
       </c>
       <c r="M24" s="1">
-        <v>941.565000</v>
+        <v>941.56500000000005</v>
       </c>
       <c r="N24" s="1">
-        <v>-121.167000</v>
+        <v>-121.167</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>27226.898863</v>
+        <v>27226.898862999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>7.563027</v>
+        <v>7.5630269999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>948.380000</v>
+        <v>948.38</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.575000</v>
+        <v>-104.575</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>27237.080236</v>
+        <v>27237.080236000002</v>
       </c>
       <c r="V24" s="1">
-        <v>7.565856</v>
+        <v>7.5658560000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>954.975000</v>
+        <v>954.97500000000002</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.075800</v>
+        <v>-89.075800000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>27247.005653</v>
@@ -6210,375 +6626,375 @@
         <v>7.568613</v>
       </c>
       <c r="AB24" s="1">
-        <v>962.015000</v>
+        <v>962.01499999999999</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.096400</v>
+        <v>-77.096400000000003</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>27257.139912</v>
+        <v>27257.139911999999</v>
       </c>
       <c r="AF24" s="1">
         <v>7.571428</v>
       </c>
       <c r="AG24" s="1">
-        <v>966.738000</v>
+        <v>966.73800000000006</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.758600</v>
+        <v>-74.758600000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>27267.386968</v>
+        <v>27267.386967999999</v>
       </c>
       <c r="AK24" s="1">
         <v>7.574274</v>
       </c>
       <c r="AL24" s="1">
-        <v>973.743000</v>
+        <v>973.74300000000005</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.227200</v>
+        <v>-79.227199999999996</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>27278.068109</v>
       </c>
       <c r="AP24" s="1">
-        <v>7.577241</v>
+        <v>7.5772409999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>981.675000</v>
+        <v>981.67499999999995</v>
       </c>
       <c r="AR24" s="1">
-        <v>-90.685700</v>
+        <v>-90.685699999999997</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>27289.226110</v>
+        <v>27289.22611</v>
       </c>
       <c r="AU24" s="1">
-        <v>7.580341</v>
+        <v>7.5803409999999998</v>
       </c>
       <c r="AV24" s="1">
-        <v>991.359000</v>
+        <v>991.35900000000004</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.237000</v>
+        <v>-108.23699999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>27300.140574</v>
+        <v>27300.140574000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>7.583372</v>
+        <v>7.5833719999999998</v>
       </c>
       <c r="BA24" s="1">
-        <v>999.471000</v>
+        <v>999.471</v>
       </c>
       <c r="BB24" s="1">
-        <v>-123.818000</v>
+        <v>-123.818</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>27311.202880</v>
+        <v>27311.202880000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>7.586445</v>
+        <v>7.5864450000000003</v>
       </c>
       <c r="BF24" s="1">
-        <v>1037.580000</v>
+        <v>1037.58</v>
       </c>
       <c r="BG24" s="1">
-        <v>-195.859000</v>
+        <v>-195.85900000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>27322.535937</v>
+        <v>27322.535937000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>7.589593</v>
+        <v>7.5895929999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1103.950000</v>
+        <v>1103.95</v>
       </c>
       <c r="BL24" s="1">
-        <v>-313.108000</v>
+        <v>-313.108</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>27333.957315</v>
       </c>
       <c r="BO24" s="1">
-        <v>7.592766</v>
+        <v>7.5927660000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1212.470000</v>
+        <v>1212.47</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-497.442000</v>
+        <v>-497.44200000000001</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>27345.000243</v>
+        <v>27345.000242999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>7.595833</v>
+        <v>7.5958329999999998</v>
       </c>
       <c r="BU24" s="1">
-        <v>1334.760000</v>
+        <v>1334.76</v>
       </c>
       <c r="BV24" s="1">
-        <v>-699.509000</v>
+        <v>-699.50900000000001</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>27356.437988</v>
+        <v>27356.437988000001</v>
       </c>
       <c r="BY24" s="1">
         <v>7.599011</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1470.900000</v>
+        <v>1470.9</v>
       </c>
       <c r="CA24" s="1">
-        <v>-914.013000</v>
+        <v>-914.01300000000003</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>27369.553236</v>
       </c>
       <c r="CD24" s="1">
-        <v>7.602654</v>
+        <v>7.6026540000000002</v>
       </c>
       <c r="CE24" s="1">
-        <v>1827.160000</v>
+        <v>1827.16</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1423.540000</v>
+        <v>-1423.54</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>27195.701962</v>
+        <v>27195.701961999999</v>
       </c>
       <c r="B25" s="1">
-        <v>7.554362</v>
+        <v>7.5543620000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>899.752000</v>
+        <v>899.75199999999995</v>
       </c>
       <c r="D25" s="1">
-        <v>-202.446000</v>
+        <v>-202.446</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>27206.126379</v>
+        <v>27206.126379000001</v>
       </c>
       <c r="G25" s="1">
-        <v>7.557257</v>
+        <v>7.5572569999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>917.855000</v>
+        <v>917.85500000000002</v>
       </c>
       <c r="I25" s="1">
-        <v>-171.514000</v>
+        <v>-171.51400000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>27216.664414</v>
+        <v>27216.664413999999</v>
       </c>
       <c r="L25" s="1">
-        <v>7.560185</v>
+        <v>7.5601849999999997</v>
       </c>
       <c r="M25" s="1">
-        <v>941.498000</v>
+        <v>941.49800000000005</v>
       </c>
       <c r="N25" s="1">
-        <v>-121.124000</v>
+        <v>-121.124</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>27227.249039</v>
+        <v>27227.249038999998</v>
       </c>
       <c r="Q25" s="1">
-        <v>7.563125</v>
+        <v>7.5631250000000003</v>
       </c>
       <c r="R25" s="1">
-        <v>948.401000</v>
+        <v>948.40099999999995</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.581000</v>
+        <v>-104.581</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>27237.429924</v>
       </c>
       <c r="V25" s="1">
-        <v>7.565953</v>
+        <v>7.5659530000000004</v>
       </c>
       <c r="W25" s="1">
-        <v>954.989000</v>
+        <v>954.98900000000003</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.131400</v>
+        <v>-89.131399999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>27247.357844</v>
+        <v>27247.357843999998</v>
       </c>
       <c r="AA25" s="1">
-        <v>7.568711</v>
+        <v>7.5687110000000004</v>
       </c>
       <c r="AB25" s="1">
-        <v>962.038000</v>
+        <v>962.03800000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.173600</v>
+        <v>-77.173599999999993</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>27257.563495</v>
+        <v>27257.563494999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>7.571545</v>
+        <v>7.5715450000000004</v>
       </c>
       <c r="AG25" s="1">
-        <v>966.718000</v>
+        <v>966.71799999999996</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.755700</v>
+        <v>-74.755700000000004</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>27267.814810</v>
+        <v>27267.81481</v>
       </c>
       <c r="AK25" s="1">
-        <v>7.574393</v>
+        <v>7.5743929999999997</v>
       </c>
       <c r="AL25" s="1">
-        <v>973.724000</v>
+        <v>973.72400000000005</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.256100</v>
+        <v>-79.256100000000004</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>27278.367196</v>
+        <v>27278.367195999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>7.577324</v>
+        <v>7.5773239999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>981.650000</v>
+        <v>981.65</v>
       </c>
       <c r="AR25" s="1">
-        <v>-90.693100</v>
+        <v>-90.693100000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>27289.461251</v>
+        <v>27289.461251000001</v>
       </c>
       <c r="AU25" s="1">
         <v>7.580406</v>
       </c>
       <c r="AV25" s="1">
-        <v>991.349000</v>
+        <v>991.34900000000005</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.242000</v>
+        <v>-108.242</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>27300.499182</v>
       </c>
       <c r="AZ25" s="1">
-        <v>7.583472</v>
+        <v>7.5834720000000004</v>
       </c>
       <c r="BA25" s="1">
-        <v>999.478000</v>
+        <v>999.47799999999995</v>
       </c>
       <c r="BB25" s="1">
-        <v>-123.828000</v>
+        <v>-123.828</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>27311.561952</v>
       </c>
       <c r="BE25" s="1">
-        <v>7.586545</v>
+        <v>7.5865450000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1037.590000</v>
+        <v>1037.5899999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-195.882000</v>
+        <v>-195.88200000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>27323.281920</v>
+        <v>27323.281920000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>7.589801</v>
+        <v>7.5898009999999996</v>
       </c>
       <c r="BK25" s="1">
-        <v>1103.970000</v>
+        <v>1103.97</v>
       </c>
       <c r="BL25" s="1">
-        <v>-313.086000</v>
+        <v>-313.08600000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>27334.387841</v>
@@ -6587,165 +7003,165 @@
         <v>7.592886</v>
       </c>
       <c r="BP25" s="1">
-        <v>1212.500000</v>
+        <v>1212.5</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-497.442000</v>
+        <v>-497.44200000000001</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>27345.426343</v>
+        <v>27345.426342999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>7.595952</v>
+        <v>7.5959519999999996</v>
       </c>
       <c r="BU25" s="1">
-        <v>1334.690000</v>
+        <v>1334.69</v>
       </c>
       <c r="BV25" s="1">
-        <v>-699.521000</v>
+        <v>-699.52099999999996</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>27356.862240</v>
+        <v>27356.862239999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>7.599128</v>
+        <v>7.5991280000000003</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1470.930000</v>
+        <v>1470.93</v>
       </c>
       <c r="CA25" s="1">
-        <v>-914.059000</v>
+        <v>-914.05899999999997</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>27370.095826</v>
+        <v>27370.095826000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>7.602804</v>
+        <v>7.6028039999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1828.460000</v>
+        <v>1828.46</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1424.970000</v>
+        <v>-1424.97</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>27196.067016</v>
+        <v>27196.067016000001</v>
       </c>
       <c r="B26" s="1">
-        <v>7.554463</v>
+        <v>7.5544630000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>899.778000</v>
+        <v>899.77800000000002</v>
       </c>
       <c r="D26" s="1">
-        <v>-202.615000</v>
+        <v>-202.61500000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>27206.500363</v>
+        <v>27206.500362999999</v>
       </c>
       <c r="G26" s="1">
-        <v>7.557361</v>
+        <v>7.5573610000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>918.233000</v>
+        <v>918.23299999999995</v>
       </c>
       <c r="I26" s="1">
-        <v>-171.026000</v>
+        <v>-171.02600000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>27217.013102</v>
+        <v>27217.013102000001</v>
       </c>
       <c r="L26" s="1">
-        <v>7.560281</v>
+        <v>7.5602809999999998</v>
       </c>
       <c r="M26" s="1">
-        <v>941.560000</v>
+        <v>941.56</v>
       </c>
       <c r="N26" s="1">
-        <v>-121.110000</v>
+        <v>-121.11</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>27227.596207</v>
+        <v>27227.596206999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>7.563221</v>
+        <v>7.5632210000000004</v>
       </c>
       <c r="R26" s="1">
-        <v>948.408000</v>
+        <v>948.40800000000002</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.618000</v>
+        <v>-104.61799999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>27237.773650</v>
+        <v>27237.773649999999</v>
       </c>
       <c r="V26" s="1">
-        <v>7.566048</v>
+        <v>7.5660480000000003</v>
       </c>
       <c r="W26" s="1">
-        <v>954.989000</v>
+        <v>954.98900000000003</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.201000</v>
+        <v>-89.200999999999993</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>27247.785860</v>
+        <v>27247.78586</v>
       </c>
       <c r="AA26" s="1">
         <v>7.568829</v>
       </c>
       <c r="AB26" s="1">
-        <v>962.077000</v>
+        <v>962.077</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.077100</v>
+        <v>-77.077100000000002</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>27257.833356</v>
+        <v>27257.833355999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>7.571620</v>
+        <v>7.5716200000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>966.725000</v>
+        <v>966.72500000000002</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.775500</v>
+        <v>-74.775499999999994</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>27268.095083</v>
@@ -6754,28 +7170,28 @@
         <v>7.574471</v>
       </c>
       <c r="AL26" s="1">
-        <v>973.736000</v>
+        <v>973.73599999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.259500</v>
+        <v>-79.259500000000003</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>27278.726299</v>
+        <v>27278.726299000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>7.577424</v>
+        <v>7.5774239999999997</v>
       </c>
       <c r="AQ26" s="1">
-        <v>981.648000</v>
+        <v>981.64800000000002</v>
       </c>
       <c r="AR26" s="1">
-        <v>-90.728300</v>
+        <v>-90.728300000000004</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>27289.828285</v>
@@ -6784,120 +7200,121 @@
         <v>7.580508</v>
       </c>
       <c r="AV26" s="1">
-        <v>991.379000</v>
+        <v>991.37900000000002</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.247000</v>
+        <v>-108.247</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>27300.859279</v>
       </c>
       <c r="AZ26" s="1">
-        <v>7.583572</v>
+        <v>7.5835720000000002</v>
       </c>
       <c r="BA26" s="1">
-        <v>999.468000</v>
+        <v>999.46799999999996</v>
       </c>
       <c r="BB26" s="1">
-        <v>-123.823000</v>
+        <v>-123.82299999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>27312.285120</v>
+        <v>27312.28512</v>
       </c>
       <c r="BE26" s="1">
-        <v>7.586746</v>
+        <v>7.5867459999999998</v>
       </c>
       <c r="BF26" s="1">
-        <v>1037.580000</v>
+        <v>1037.58</v>
       </c>
       <c r="BG26" s="1">
-        <v>-195.881000</v>
+        <v>-195.881</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>27323.658911</v>
+        <v>27323.658910999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>7.589905</v>
+        <v>7.5899049999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1103.980000</v>
+        <v>1103.98</v>
       </c>
       <c r="BL26" s="1">
-        <v>-313.081000</v>
+        <v>-313.08100000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>27334.772241</v>
+        <v>27334.772240999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>7.592992</v>
+        <v>7.5929919999999997</v>
       </c>
       <c r="BP26" s="1">
-        <v>1212.510000</v>
+        <v>1212.51</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-497.441000</v>
+        <v>-497.44099999999997</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>27345.844435</v>
+        <v>27345.844434999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>7.596068</v>
+        <v>7.5960679999999998</v>
       </c>
       <c r="BU26" s="1">
-        <v>1334.560000</v>
+        <v>1334.56</v>
       </c>
       <c r="BV26" s="1">
-        <v>-699.559000</v>
+        <v>-699.55899999999997</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>27357.601602</v>
+        <v>27357.601601999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>7.599334</v>
+        <v>7.5993339999999998</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1471.040000</v>
+        <v>1471.04</v>
       </c>
       <c r="CA26" s="1">
-        <v>-914.068000</v>
+        <v>-914.06799999999998</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>27370.984658</v>
+        <v>27370.984658000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>7.603051</v>
+        <v>7.6030509999999998</v>
       </c>
       <c r="CE26" s="1">
-        <v>1827.180000</v>
+        <v>1827.18</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1424.230000</v>
+        <v>-1424.23</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>